--- a/Homog/Test_dir/AND_10YR_CN/Key_V3_AND_DIRT_10YR_CN.xlsx
+++ b/Homog/Test_dir/AND_10YR_CN/Key_V3_AND_DIRT_10YR_CN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\CZnetGM_SoDaH\Homog\Test_dir\AND_10YR_CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED225FA6-522E-4E35-881B-318A41F05082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E842F6BA-C774-43F8-8F9A-8C3B0D4C3625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Location_data" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,22 @@
     <sheet name="Units" sheetId="3" r:id="rId3"/>
     <sheet name="unitConversions" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="688">
   <si>
     <t>Value</t>
   </si>
@@ -2063,6 +2073,30 @@
   </si>
   <si>
     <t>ft</t>
+  </si>
+  <si>
+    <t>minValue</t>
+  </si>
+  <si>
+    <t>maxValue</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>decimal degrees</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>kg/m2</t>
+  </si>
+  <si>
+    <t>binary</t>
   </si>
 </sst>
 </file>
@@ -2495,11 +2529,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2511,10 +2545,11 @@
     <col min="5" max="5" width="7.6640625" customWidth="1"/>
     <col min="6" max="6" width="38.88671875" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="26" width="7.6640625" customWidth="1"/>
+    <col min="8" max="13" width="8.88671875"/>
+    <col min="14" max="32" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2536,12 +2571,24 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="H1" t="s">
+        <v>680</v>
+      </c>
+      <c r="I1" t="s">
+        <v>681</v>
+      </c>
+      <c r="J1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" t="s">
+        <v>682</v>
+      </c>
+      <c r="M1" t="s">
+        <v>683</v>
+      </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -2555,8 +2602,14 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+    </row>
+    <row r="2" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2572,12 +2625,24 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -2591,8 +2656,14 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
-    </row>
-    <row r="3" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+    </row>
+    <row r="3" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2608,12 +2679,24 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>226</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -2627,8 +2710,14 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
-    </row>
-    <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+    </row>
+    <row r="4" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2644,12 +2733,24 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>226</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -2663,8 +2764,14 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
-    </row>
-    <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+    </row>
+    <row r="5" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2680,12 +2787,24 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>226</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -2699,8 +2818,14 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+    </row>
+    <row r="6" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2716,12 +2841,24 @@
       <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>226</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -2735,8 +2872,14 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-    </row>
-    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+    </row>
+    <row r="7" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2752,12 +2895,24 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>8</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -2771,8 +2926,14 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+    </row>
+    <row r="8" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2788,12 +2949,24 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" t="s">
+        <v>8</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -2807,8 +2980,14 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-    </row>
-    <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+    </row>
+    <row r="9" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2824,12 +3003,24 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>226</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" t="s">
+        <v>8</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -2843,8 +3034,14 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+    </row>
+    <row r="10" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2860,12 +3057,24 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" t="s">
+        <v>226</v>
+      </c>
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>8</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -2879,8 +3088,14 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+    </row>
+    <row r="11" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2896,12 +3111,24 @@
       <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>226</v>
+      </c>
+      <c r="L11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" t="s">
+        <v>8</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -2915,8 +3142,14 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -2929,12 +3162,24 @@
       <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" t="s">
+        <v>8</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -2948,8 +3193,14 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+    </row>
+    <row r="13" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2962,12 +3213,24 @@
       <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" t="s">
+        <v>232</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" t="s">
+        <v>8</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -2981,8 +3244,14 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+    </row>
+    <row r="14" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2998,12 +3267,24 @@
       <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" t="s">
+        <v>8</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -3017,8 +3298,14 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+    </row>
+    <row r="15" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -3034,12 +3321,24 @@
       <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" t="s">
+        <v>8</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -3053,8 +3352,14 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+    </row>
+    <row r="16" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -3067,12 +3372,24 @@
       <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>226</v>
+      </c>
+      <c r="L16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" t="s">
+        <v>8</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -3086,8 +3403,14 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+    </row>
+    <row r="17" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -3100,12 +3423,24 @@
       <c r="E17" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" t="s">
+        <v>226</v>
+      </c>
+      <c r="L17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" t="s">
+        <v>8</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -3119,8 +3454,14 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+    </row>
+    <row r="18" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3136,12 +3477,24 @@
       <c r="E18" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" t="s">
+        <v>226</v>
+      </c>
+      <c r="L18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" t="s">
+        <v>8</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -3155,8 +3508,14 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
-    </row>
-    <row r="19" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+    </row>
+    <row r="19" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>44.231000000000002</v>
       </c>
@@ -3169,12 +3528,24 @@
       <c r="E19" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="H19">
+        <v>-90</v>
+      </c>
+      <c r="I19">
+        <v>90</v>
+      </c>
+      <c r="J19" t="s">
+        <v>684</v>
+      </c>
+      <c r="K19" t="s">
+        <v>232</v>
+      </c>
+      <c r="L19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>8</v>
+      </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -3188,8 +3559,14 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-122.22</v>
       </c>
@@ -3202,12 +3579,24 @@
       <c r="E20" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="H20">
+        <v>-180</v>
+      </c>
+      <c r="I20">
+        <v>180</v>
+      </c>
+      <c r="J20" t="s">
+        <v>684</v>
+      </c>
+      <c r="K20" t="s">
+        <v>232</v>
+      </c>
+      <c r="L20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" t="s">
+        <v>8</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -3221,8 +3610,14 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+    </row>
+    <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>59</v>
       </c>
@@ -3232,12 +3627,24 @@
       <c r="E21" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" t="s">
+        <v>226</v>
+      </c>
+      <c r="L21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" t="s">
+        <v>8</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -3251,8 +3658,14 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+    </row>
+    <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.53100000000000003</v>
       </c>
@@ -3268,12 +3681,24 @@
       <c r="E22" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="H22">
+        <v>-500</v>
+      </c>
+      <c r="I22">
+        <v>5000</v>
+      </c>
+      <c r="J22" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" t="s">
+        <v>232</v>
+      </c>
+      <c r="L22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" t="s">
+        <v>8</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -3287,8 +3712,14 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+    </row>
+    <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>237</v>
       </c>
@@ -3304,12 +3735,24 @@
       <c r="E23" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>8000</v>
+      </c>
+      <c r="J23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" t="s">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" t="s">
+        <v>8</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3323,8 +3766,14 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+    </row>
+    <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8.8000000000000007</v>
       </c>
@@ -3340,12 +3789,24 @@
       <c r="E24" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="H24">
+        <v>-30</v>
+      </c>
+      <c r="I24">
+        <v>40</v>
+      </c>
+      <c r="J24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" t="s">
+        <v>8</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -3359,8 +3820,14 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+    </row>
+    <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -3373,12 +3840,24 @@
       <c r="E25" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" t="s">
+        <v>8</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -3392,8 +3871,14 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+    </row>
+    <row r="26" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1997</v>
       </c>
@@ -3409,12 +3894,24 @@
       <c r="E26" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>685</v>
+      </c>
+      <c r="L26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" t="s">
+        <v>8</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -3428,8 +3925,14 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+    </row>
+    <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>76</v>
       </c>
@@ -3442,12 +3945,24 @@
       <c r="E27" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>360</v>
+      </c>
+      <c r="J27" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" t="s">
+        <v>232</v>
+      </c>
+      <c r="L27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" t="s">
+        <v>8</v>
+      </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -3461,8 +3976,14 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+    </row>
+    <row r="28" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>79</v>
       </c>
@@ -3472,12 +3993,24 @@
       <c r="E28" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" t="s">
+        <v>8</v>
+      </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -3491,8 +4024,14 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+    </row>
+    <row r="29" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>81</v>
       </c>
@@ -3502,12 +4041,24 @@
       <c r="E29" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" t="s">
+        <v>232</v>
+      </c>
+      <c r="L29" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" t="s">
+        <v>8</v>
+      </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -3521,8 +4072,14 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+    </row>
+    <row r="30" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>83</v>
       </c>
@@ -3532,12 +4089,24 @@
       <c r="E30" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" t="s">
+        <v>226</v>
+      </c>
+      <c r="L30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" t="s">
+        <v>8</v>
+      </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -3551,8 +4120,14 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
-    </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+    </row>
+    <row r="31" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>85</v>
       </c>
@@ -3562,12 +4137,24 @@
       <c r="E31" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" t="s">
+        <v>8</v>
+      </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -3581,8 +4168,14 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
-    </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+    </row>
+    <row r="32" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>87</v>
       </c>
@@ -3592,12 +4185,24 @@
       <c r="E32" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1000</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+      <c r="K32" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" t="s">
+        <v>8</v>
+      </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -3611,8 +4216,14 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+    </row>
+    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>89</v>
       </c>
@@ -3622,12 +4233,24 @@
       <c r="E33" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" t="s">
+        <v>226</v>
+      </c>
+      <c r="L33" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" t="s">
+        <v>8</v>
+      </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -3641,8 +4264,14 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+    </row>
+    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>90</v>
       </c>
@@ -3652,12 +4281,24 @@
       <c r="E34" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" t="s">
+        <v>226</v>
+      </c>
+      <c r="L34" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" t="s">
+        <v>8</v>
+      </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -3671,8 +4312,14 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
-    </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+    </row>
+    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>92</v>
       </c>
@@ -3682,12 +4329,24 @@
       <c r="E35" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+      <c r="H35" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" t="s">
+        <v>226</v>
+      </c>
+      <c r="L35" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" t="s">
+        <v>8</v>
+      </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -3701,8 +4360,14 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
-    </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+    </row>
+    <row r="36" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -3715,12 +4380,24 @@
       <c r="E36" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" t="s">
+        <v>226</v>
+      </c>
+      <c r="L36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" t="s">
+        <v>8</v>
+      </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -3734,8 +4411,14 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
-    </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+    </row>
+    <row r="37" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -3748,12 +4431,24 @@
       <c r="E37" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+      <c r="H37" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" t="s">
+        <v>226</v>
+      </c>
+      <c r="L37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37" t="s">
+        <v>8</v>
+      </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -3767,8 +4462,14 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
-    </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+    </row>
+    <row r="38" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -3781,12 +4482,24 @@
       <c r="E38" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" t="s">
+        <v>226</v>
+      </c>
+      <c r="L38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" t="s">
+        <v>8</v>
+      </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -3800,8 +4513,14 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
-    </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+    </row>
+    <row r="39" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -3814,12 +4533,24 @@
       <c r="E39" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
+      <c r="H39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" t="s">
+        <v>226</v>
+      </c>
+      <c r="L39" t="s">
+        <v>8</v>
+      </c>
+      <c r="M39" t="s">
+        <v>8</v>
+      </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
@@ -3833,8 +4564,14 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>106</v>
       </c>
@@ -3844,12 +4581,24 @@
       <c r="E40" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+      <c r="H40">
+        <v>0.1</v>
+      </c>
+      <c r="I40">
+        <v>600</v>
+      </c>
+      <c r="J40" t="s">
+        <v>572</v>
+      </c>
+      <c r="K40" t="s">
+        <v>232</v>
+      </c>
+      <c r="L40" t="s">
+        <v>8</v>
+      </c>
+      <c r="M40" t="s">
+        <v>8</v>
+      </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
@@ -3863,8 +4612,14 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>108</v>
       </c>
@@ -3874,12 +4629,24 @@
       <c r="E41" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>235</v>
+      </c>
+      <c r="K41" t="s">
+        <v>232</v>
+      </c>
+      <c r="L41" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" t="s">
+        <v>8</v>
+      </c>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
@@ -3893,8 +4660,14 @@
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
-    </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+    </row>
+    <row r="42" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>110</v>
       </c>
@@ -3904,12 +4677,24 @@
       <c r="E42" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1000</v>
+      </c>
+      <c r="J42" t="s">
+        <v>572</v>
+      </c>
+      <c r="K42" t="s">
+        <v>232</v>
+      </c>
+      <c r="L42" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" t="s">
+        <v>8</v>
+      </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
@@ -3923,8 +4708,14 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
-    </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+    </row>
+    <row r="43" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>112</v>
       </c>
@@ -3934,12 +4725,24 @@
       <c r="E43" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>200</v>
+      </c>
+      <c r="J43" t="s">
+        <v>251</v>
+      </c>
+      <c r="K43" t="s">
+        <v>232</v>
+      </c>
+      <c r="L43" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" t="s">
+        <v>8</v>
+      </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -3953,8 +4756,14 @@
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
-    </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+    </row>
+    <row r="44" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>114</v>
       </c>
@@ -3964,12 +4773,24 @@
       <c r="E44" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>100</v>
+      </c>
+      <c r="J44" t="s">
+        <v>235</v>
+      </c>
+      <c r="K44" t="s">
+        <v>232</v>
+      </c>
+      <c r="L44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" t="s">
+        <v>8</v>
+      </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
@@ -3983,8 +4804,14 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
-    </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+    </row>
+    <row r="45" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>116</v>
       </c>
@@ -3994,12 +4821,24 @@
       <c r="E45" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
+      <c r="H45" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" t="s">
+        <v>251</v>
+      </c>
+      <c r="K45" t="s">
+        <v>232</v>
+      </c>
+      <c r="L45" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" t="s">
+        <v>8</v>
+      </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
@@ -4013,8 +4852,14 @@
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
-    </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+    </row>
+    <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>118</v>
       </c>
@@ -4024,12 +4869,24 @@
       <c r="E46" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>2000</v>
+      </c>
+      <c r="J46" t="s">
+        <v>522</v>
+      </c>
+      <c r="K46" t="s">
+        <v>232</v>
+      </c>
+      <c r="L46" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" t="s">
+        <v>8</v>
+      </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
@@ -4043,8 +4900,14 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
-    </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+    </row>
+    <row r="47" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>120</v>
       </c>
@@ -4054,12 +4917,24 @@
       <c r="E47" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>2000</v>
+      </c>
+      <c r="J47" t="s">
+        <v>522</v>
+      </c>
+      <c r="K47" t="s">
+        <v>232</v>
+      </c>
+      <c r="L47" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" t="s">
+        <v>8</v>
+      </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
@@ -4073,8 +4948,14 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
-    </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+    </row>
+    <row r="48" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>122</v>
       </c>
@@ -4084,12 +4965,24 @@
       <c r="E48" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>2000</v>
+      </c>
+      <c r="J48" t="s">
+        <v>522</v>
+      </c>
+      <c r="K48" t="s">
+        <v>232</v>
+      </c>
+      <c r="L48" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" t="s">
+        <v>8</v>
+      </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
@@ -4103,8 +4996,14 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
-    </row>
-    <row r="49" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+    </row>
+    <row r="49" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>124</v>
       </c>
@@ -4114,12 +5013,24 @@
       <c r="E49" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
+      <c r="H49" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" t="s">
+        <v>226</v>
+      </c>
+      <c r="L49" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" t="s">
+        <v>8</v>
+      </c>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
@@ -4133,8 +5044,14 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
-    </row>
-    <row r="50" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+    </row>
+    <row r="50" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>126</v>
       </c>
@@ -4144,12 +5061,24 @@
       <c r="E50" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>40</v>
+      </c>
+      <c r="J50" t="s">
+        <v>686</v>
+      </c>
+      <c r="K50" t="s">
+        <v>232</v>
+      </c>
+      <c r="L50" t="s">
+        <v>8</v>
+      </c>
+      <c r="M50" t="s">
+        <v>8</v>
+      </c>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -4163,8 +5092,14 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
-    </row>
-    <row r="51" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+    </row>
+    <row r="51" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>128</v>
       </c>
@@ -4174,12 +5109,24 @@
       <c r="E51" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>40</v>
+      </c>
+      <c r="J51" t="s">
+        <v>686</v>
+      </c>
+      <c r="K51" t="s">
+        <v>232</v>
+      </c>
+      <c r="L51" t="s">
+        <v>8</v>
+      </c>
+      <c r="M51" t="s">
+        <v>8</v>
+      </c>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
@@ -4193,8 +5140,14 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
-    </row>
-    <row r="52" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3"/>
+    </row>
+    <row r="52" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>130</v>
       </c>
@@ -4207,12 +5160,24 @@
       <c r="E52" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
+      <c r="H52">
+        <v>0.01</v>
+      </c>
+      <c r="I52">
+        <v>100</v>
+      </c>
+      <c r="J52" t="s">
+        <v>64</v>
+      </c>
+      <c r="K52" t="s">
+        <v>232</v>
+      </c>
+      <c r="L52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" t="s">
+        <v>8</v>
+      </c>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
@@ -4226,8 +5191,14 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
-    </row>
-    <row r="53" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
+    </row>
+    <row r="53" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>130</v>
       </c>
@@ -4240,12 +5211,24 @@
       <c r="E53" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
+      <c r="H53">
+        <v>0.01</v>
+      </c>
+      <c r="I53">
+        <v>100</v>
+      </c>
+      <c r="J53" t="s">
+        <v>64</v>
+      </c>
+      <c r="K53" t="s">
+        <v>232</v>
+      </c>
+      <c r="L53" t="s">
+        <v>8</v>
+      </c>
+      <c r="M53" t="s">
+        <v>8</v>
+      </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
@@ -4259,8 +5242,14 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
-    </row>
-    <row r="54" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+    </row>
+    <row r="54" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>135</v>
       </c>
@@ -4273,12 +5262,24 @@
       <c r="E54" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
+      <c r="H54" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" t="s">
+        <v>226</v>
+      </c>
+      <c r="L54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" t="s">
+        <v>8</v>
+      </c>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
@@ -4292,8 +5293,14 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
-    </row>
-    <row r="55" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+    </row>
+    <row r="55" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>138</v>
       </c>
@@ -4303,12 +5310,24 @@
       <c r="E55" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
+      <c r="H55" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" t="s">
+        <v>226</v>
+      </c>
+      <c r="L55" t="s">
+        <v>8</v>
+      </c>
+      <c r="M55" t="s">
+        <v>8</v>
+      </c>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
@@ -4322,8 +5341,14 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>140</v>
       </c>
@@ -4333,12 +5358,24 @@
       <c r="E56" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>100</v>
+      </c>
+      <c r="J56" t="s">
+        <v>235</v>
+      </c>
+      <c r="K56" t="s">
+        <v>232</v>
+      </c>
+      <c r="L56" t="s">
+        <v>8</v>
+      </c>
+      <c r="M56" t="s">
+        <v>8</v>
+      </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
@@ -4352,8 +5389,14 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>142</v>
       </c>
@@ -4363,12 +5406,24 @@
       <c r="E57" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
+        <v>235</v>
+      </c>
+      <c r="K57" t="s">
+        <v>232</v>
+      </c>
+      <c r="L57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" t="s">
+        <v>8</v>
+      </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
@@ -4382,8 +5437,14 @@
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
-    </row>
-    <row r="58" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+    </row>
+    <row r="58" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>144</v>
       </c>
@@ -4393,12 +5454,24 @@
       <c r="E58" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>500</v>
+      </c>
+      <c r="J58" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" t="s">
+        <v>232</v>
+      </c>
+      <c r="L58" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" t="s">
+        <v>8</v>
+      </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
@@ -4412,8 +5485,14 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
-    </row>
-    <row r="59" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+      <c r="AF58" s="3"/>
+    </row>
+    <row r="59" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>146</v>
       </c>
@@ -4423,12 +5502,24 @@
       <c r="E59" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>100</v>
+      </c>
+      <c r="J59" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" t="s">
+        <v>232</v>
+      </c>
+      <c r="L59" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" t="s">
+        <v>8</v>
+      </c>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
@@ -4442,8 +5533,14 @@
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
-    </row>
-    <row r="60" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+    </row>
+    <row r="60" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>148</v>
       </c>
@@ -4453,12 +5550,24 @@
       <c r="E60" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>5000</v>
+      </c>
+      <c r="J60" t="s">
+        <v>522</v>
+      </c>
+      <c r="K60" t="s">
+        <v>232</v>
+      </c>
+      <c r="L60" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" t="s">
+        <v>8</v>
+      </c>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
@@ -4472,8 +5581,14 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
-    </row>
-    <row r="61" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+      <c r="AF60" s="3"/>
+    </row>
+    <row r="61" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>150</v>
       </c>
@@ -4483,8 +5598,26 @@
       <c r="E61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>1000</v>
+      </c>
+      <c r="J61" t="s">
+        <v>522</v>
+      </c>
+      <c r="K61" t="s">
+        <v>232</v>
+      </c>
+      <c r="L61" t="s">
+        <v>8</v>
+      </c>
+      <c r="M61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>152</v>
       </c>
@@ -4494,12 +5627,24 @@
       <c r="E62" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>1000</v>
+      </c>
+      <c r="J62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" t="s">
+        <v>232</v>
+      </c>
+      <c r="L62" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" t="s">
+        <v>8</v>
+      </c>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
@@ -4513,8 +5658,14 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
-    </row>
-    <row r="63" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="3"/>
+      <c r="AD62" s="3"/>
+      <c r="AE62" s="3"/>
+      <c r="AF62" s="3"/>
+    </row>
+    <row r="63" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>154</v>
       </c>
@@ -4524,12 +5675,24 @@
       <c r="E63" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
+      <c r="H63" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63" t="s">
+        <v>8</v>
+      </c>
+      <c r="K63" t="s">
+        <v>226</v>
+      </c>
+      <c r="L63" t="s">
+        <v>8</v>
+      </c>
+      <c r="M63" t="s">
+        <v>8</v>
+      </c>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
@@ -4543,8 +5706,14 @@
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
-    </row>
-    <row r="64" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="3"/>
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="3"/>
+      <c r="AF63" s="3"/>
+    </row>
+    <row r="64" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>156</v>
       </c>
@@ -4554,12 +5723,24 @@
       <c r="E64" t="s">
         <v>11</v>
       </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
+      <c r="H64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" t="s">
+        <v>8</v>
+      </c>
+      <c r="J64" t="s">
+        <v>8</v>
+      </c>
+      <c r="K64" t="s">
+        <v>226</v>
+      </c>
+      <c r="L64" t="s">
+        <v>8</v>
+      </c>
+      <c r="M64" t="s">
+        <v>8</v>
+      </c>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
@@ -4573,8 +5754,14 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
-    </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="3"/>
+      <c r="AD64" s="3"/>
+      <c r="AE64" s="3"/>
+      <c r="AF64" s="3"/>
+    </row>
+    <row r="65" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>13</v>
       </c>
@@ -4590,12 +5777,24 @@
       <c r="E65" t="s">
         <v>11</v>
       </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
+      <c r="H65" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" t="s">
+        <v>8</v>
+      </c>
+      <c r="J65" t="s">
+        <v>8</v>
+      </c>
+      <c r="K65" t="s">
+        <v>8</v>
+      </c>
+      <c r="L65" t="s">
+        <v>8</v>
+      </c>
+      <c r="M65" t="s">
+        <v>8</v>
+      </c>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
@@ -4609,8 +5808,14 @@
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
-    </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="3"/>
+      <c r="AC65" s="3"/>
+      <c r="AD65" s="3"/>
+      <c r="AE65" s="3"/>
+      <c r="AF65" s="3"/>
+    </row>
+    <row r="66" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5.2</v>
       </c>
@@ -4626,12 +5831,24 @@
       <c r="E66" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
+      <c r="H66" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" t="s">
+        <v>8</v>
+      </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
@@ -4645,8 +5862,14 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
-    </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
+      <c r="AC66" s="3"/>
+      <c r="AD66" s="3"/>
+      <c r="AE66" s="3"/>
+      <c r="AF66" s="3"/>
+    </row>
+    <row r="67" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.82</v>
       </c>
@@ -4662,12 +5885,24 @@
       <c r="E67" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
+      <c r="H67" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" t="s">
+        <v>8</v>
+      </c>
+      <c r="L67" t="s">
+        <v>8</v>
+      </c>
+      <c r="M67" t="s">
+        <v>8</v>
+      </c>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
@@ -4681,8 +5916,14 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>166</v>
       </c>
@@ -4698,12 +5939,24 @@
       <c r="G68" t="s">
         <v>169</v>
       </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
+      <c r="H68" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" t="s">
+        <v>8</v>
+      </c>
+      <c r="J68" t="s">
+        <v>8</v>
+      </c>
+      <c r="K68" t="s">
+        <v>687</v>
+      </c>
+      <c r="L68" t="s">
+        <v>8</v>
+      </c>
+      <c r="M68" t="s">
+        <v>8</v>
+      </c>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
@@ -4717,8 +5970,14 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
-    </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
+      <c r="AC68" s="3"/>
+      <c r="AD68" s="3"/>
+      <c r="AE68" s="3"/>
+      <c r="AF68" s="3"/>
+    </row>
+    <row r="69" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>170</v>
       </c>
@@ -4731,12 +5990,24 @@
       <c r="E69" t="s">
         <v>11</v>
       </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
+      <c r="H69" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69" t="s">
+        <v>8</v>
+      </c>
+      <c r="K69" t="s">
+        <v>687</v>
+      </c>
+      <c r="L69" t="s">
+        <v>8</v>
+      </c>
+      <c r="M69" t="s">
+        <v>8</v>
+      </c>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
@@ -4750,8 +6021,14 @@
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
-    </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="3"/>
+      <c r="AD69" s="3"/>
+      <c r="AE69" s="3"/>
+      <c r="AF69" s="3"/>
+    </row>
+    <row r="70" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>166</v>
       </c>
@@ -4764,12 +6041,24 @@
       <c r="E70" t="s">
         <v>11</v>
       </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
+      <c r="H70" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" t="s">
+        <v>8</v>
+      </c>
+      <c r="J70" t="s">
+        <v>8</v>
+      </c>
+      <c r="K70" t="s">
+        <v>687</v>
+      </c>
+      <c r="L70" t="s">
+        <v>8</v>
+      </c>
+      <c r="M70" t="s">
+        <v>8</v>
+      </c>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
@@ -4783,8 +6072,14 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
-    </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
+      <c r="AC70" s="3"/>
+      <c r="AD70" s="3"/>
+      <c r="AE70" s="3"/>
+      <c r="AF70" s="3"/>
+    </row>
+    <row r="71" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>175</v>
       </c>
@@ -4797,12 +6092,24 @@
       <c r="E71" t="s">
         <v>11</v>
       </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
+      <c r="H71" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" t="s">
+        <v>8</v>
+      </c>
+      <c r="J71" t="s">
+        <v>8</v>
+      </c>
+      <c r="K71" t="s">
+        <v>8</v>
+      </c>
+      <c r="L71" t="s">
+        <v>8</v>
+      </c>
+      <c r="M71" t="s">
+        <v>8</v>
+      </c>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
@@ -4816,8 +6123,14 @@
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
-    </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="3"/>
+      <c r="AD71" s="3"/>
+      <c r="AE71" s="3"/>
+      <c r="AF71" s="3"/>
+    </row>
+    <row r="72" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6</v>
       </c>
@@ -4830,12 +6143,24 @@
       <c r="E72" t="s">
         <v>11</v>
       </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
+      <c r="H72" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" t="s">
+        <v>232</v>
+      </c>
+      <c r="L72" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" t="s">
+        <v>8</v>
+      </c>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
@@ -4849,8 +6174,14 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
-    </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="3"/>
+      <c r="AC72" s="3"/>
+      <c r="AD72" s="3"/>
+      <c r="AE72" s="3"/>
+      <c r="AF72" s="3"/>
+    </row>
+    <row r="73" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>170</v>
       </c>
@@ -4863,12 +6194,24 @@
       <c r="E73" t="s">
         <v>11</v>
       </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
+      <c r="H73" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" t="s">
+        <v>8</v>
+      </c>
+      <c r="J73" t="s">
+        <v>8</v>
+      </c>
+      <c r="K73" t="s">
+        <v>687</v>
+      </c>
+      <c r="L73" t="s">
+        <v>8</v>
+      </c>
+      <c r="M73" t="s">
+        <v>8</v>
+      </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
@@ -4882,8 +6225,14 @@
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
-    </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="3"/>
+      <c r="AC73" s="3"/>
+      <c r="AD73" s="3"/>
+      <c r="AE73" s="3"/>
+      <c r="AF73" s="3"/>
+    </row>
+    <row r="74" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -4896,12 +6245,24 @@
       <c r="E74" t="s">
         <v>11</v>
       </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
+      <c r="H74" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" t="s">
+        <v>8</v>
+      </c>
+      <c r="J74" t="s">
+        <v>8</v>
+      </c>
+      <c r="K74" t="s">
+        <v>8</v>
+      </c>
+      <c r="L74" t="s">
+        <v>8</v>
+      </c>
+      <c r="M74" t="s">
+        <v>8</v>
+      </c>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
@@ -4915,8 +6276,14 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
-    </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="3"/>
+      <c r="AC74" s="3"/>
+      <c r="AD74" s="3"/>
+      <c r="AE74" s="3"/>
+      <c r="AF74" s="3"/>
+    </row>
+    <row r="75" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4924,12 +6291,6 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
@@ -4943,8 +6304,14 @@
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
-    </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA75" s="3"/>
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="3"/>
+      <c r="AD75" s="3"/>
+      <c r="AE75" s="3"/>
+      <c r="AF75" s="3"/>
+    </row>
+    <row r="76" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4952,12 +6319,6 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
@@ -4971,8 +6332,14 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
-    </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="3"/>
+      <c r="AC76" s="3"/>
+      <c r="AD76" s="3"/>
+      <c r="AE76" s="3"/>
+      <c r="AF76" s="3"/>
+    </row>
+    <row r="77" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -4980,12 +6347,6 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
@@ -4999,8 +6360,14 @@
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
-    </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="3"/>
+      <c r="AD77" s="3"/>
+      <c r="AE77" s="3"/>
+      <c r="AF77" s="3"/>
+    </row>
+    <row r="78" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5008,12 +6375,6 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
@@ -5027,8 +6388,14 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
-    </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="3"/>
+      <c r="AD78" s="3"/>
+      <c r="AE78" s="3"/>
+      <c r="AF78" s="3"/>
+    </row>
+    <row r="79" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5036,12 +6403,6 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
@@ -5055,8 +6416,14 @@
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
-    </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA79" s="3"/>
+      <c r="AB79" s="3"/>
+      <c r="AC79" s="3"/>
+      <c r="AD79" s="3"/>
+      <c r="AE79" s="3"/>
+      <c r="AF79" s="3"/>
+    </row>
+    <row r="80" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5064,12 +6431,6 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
@@ -5083,8 +6444,14 @@
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
-    </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="3"/>
+      <c r="AC80" s="3"/>
+      <c r="AD80" s="3"/>
+      <c r="AE80" s="3"/>
+      <c r="AF80" s="3"/>
+    </row>
+    <row r="81" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5092,12 +6459,6 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
@@ -5111,8 +6472,14 @@
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
-    </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA81" s="3"/>
+      <c r="AB81" s="3"/>
+      <c r="AC81" s="3"/>
+      <c r="AD81" s="3"/>
+      <c r="AE81" s="3"/>
+      <c r="AF81" s="3"/>
+    </row>
+    <row r="82" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5120,12 +6487,6 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
@@ -5139,8 +6500,14 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5148,12 +6515,6 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
@@ -5167,8 +6528,14 @@
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
-    </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA83" s="3"/>
+      <c r="AB83" s="3"/>
+      <c r="AC83" s="3"/>
+      <c r="AD83" s="3"/>
+      <c r="AE83" s="3"/>
+      <c r="AF83" s="3"/>
+    </row>
+    <row r="84" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5176,12 +6543,6 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
@@ -5195,8 +6556,14 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
-    </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+      <c r="AC84" s="3"/>
+      <c r="AD84" s="3"/>
+      <c r="AE84" s="3"/>
+      <c r="AF84" s="3"/>
+    </row>
+    <row r="85" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5204,12 +6571,6 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
@@ -5223,8 +6584,14 @@
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
-    </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA85" s="3"/>
+      <c r="AB85" s="3"/>
+      <c r="AC85" s="3"/>
+      <c r="AD85" s="3"/>
+      <c r="AE85" s="3"/>
+      <c r="AF85" s="3"/>
+    </row>
+    <row r="86" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5232,12 +6599,6 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
@@ -5251,8 +6612,14 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
-    </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA86" s="3"/>
+      <c r="AB86" s="3"/>
+      <c r="AC86" s="3"/>
+      <c r="AD86" s="3"/>
+      <c r="AE86" s="3"/>
+      <c r="AF86" s="3"/>
+    </row>
+    <row r="87" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5260,12 +6627,6 @@
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
@@ -5279,8 +6640,14 @@
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
-    </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA87" s="3"/>
+      <c r="AB87" s="3"/>
+      <c r="AC87" s="3"/>
+      <c r="AD87" s="3"/>
+      <c r="AE87" s="3"/>
+      <c r="AF87" s="3"/>
+    </row>
+    <row r="88" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5288,12 +6655,6 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
@@ -5307,8 +6668,14 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
-    </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA88" s="3"/>
+      <c r="AB88" s="3"/>
+      <c r="AC88" s="3"/>
+      <c r="AD88" s="3"/>
+      <c r="AE88" s="3"/>
+      <c r="AF88" s="3"/>
+    </row>
+    <row r="89" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5316,12 +6683,6 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
@@ -5335,8 +6696,14 @@
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
-    </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA89" s="3"/>
+      <c r="AB89" s="3"/>
+      <c r="AC89" s="3"/>
+      <c r="AD89" s="3"/>
+      <c r="AE89" s="3"/>
+      <c r="AF89" s="3"/>
+    </row>
+    <row r="90" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5344,12 +6711,6 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
@@ -5363,8 +6724,14 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5372,12 +6739,6 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
@@ -5391,8 +6752,14 @@
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
-    </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA91" s="3"/>
+      <c r="AB91" s="3"/>
+      <c r="AC91" s="3"/>
+      <c r="AD91" s="3"/>
+      <c r="AE91" s="3"/>
+      <c r="AF91" s="3"/>
+    </row>
+    <row r="92" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5400,12 +6767,6 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
@@ -5419,8 +6780,14 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
-    </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="3"/>
+      <c r="AC92" s="3"/>
+      <c r="AD92" s="3"/>
+      <c r="AE92" s="3"/>
+      <c r="AF92" s="3"/>
+    </row>
+    <row r="93" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5428,12 +6795,6 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
@@ -5447,8 +6808,14 @@
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
-    </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA93" s="3"/>
+      <c r="AB93" s="3"/>
+      <c r="AC93" s="3"/>
+      <c r="AD93" s="3"/>
+      <c r="AE93" s="3"/>
+      <c r="AF93" s="3"/>
+    </row>
+    <row r="94" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5456,12 +6823,6 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
@@ -5475,8 +6836,14 @@
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
-    </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA94" s="3"/>
+      <c r="AB94" s="3"/>
+      <c r="AC94" s="3"/>
+      <c r="AD94" s="3"/>
+      <c r="AE94" s="3"/>
+      <c r="AF94" s="3"/>
+    </row>
+    <row r="95" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5484,12 +6851,6 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
@@ -5503,8 +6864,14 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5512,12 +6879,6 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
@@ -5531,8 +6892,14 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
-    </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA96" s="3"/>
+      <c r="AB96" s="3"/>
+      <c r="AC96" s="3"/>
+      <c r="AD96" s="3"/>
+      <c r="AE96" s="3"/>
+      <c r="AF96" s="3"/>
+    </row>
+    <row r="97" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5540,12 +6907,6 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
@@ -5559,8 +6920,14 @@
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
-    </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA97" s="3"/>
+      <c r="AB97" s="3"/>
+      <c r="AC97" s="3"/>
+      <c r="AD97" s="3"/>
+      <c r="AE97" s="3"/>
+      <c r="AF97" s="3"/>
+    </row>
+    <row r="98" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5568,12 +6935,6 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
@@ -5587,8 +6948,14 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
-    </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA98" s="3"/>
+      <c r="AB98" s="3"/>
+      <c r="AC98" s="3"/>
+      <c r="AD98" s="3"/>
+      <c r="AE98" s="3"/>
+      <c r="AF98" s="3"/>
+    </row>
+    <row r="99" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5596,12 +6963,6 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
@@ -5615,8 +6976,14 @@
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
-    </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA99" s="3"/>
+      <c r="AB99" s="3"/>
+      <c r="AC99" s="3"/>
+      <c r="AD99" s="3"/>
+      <c r="AE99" s="3"/>
+      <c r="AF99" s="3"/>
+    </row>
+    <row r="100" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5624,12 +6991,6 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
@@ -5643,8 +7004,14 @@
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
-    </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA100" s="3"/>
+      <c r="AB100" s="3"/>
+      <c r="AC100" s="3"/>
+      <c r="AD100" s="3"/>
+      <c r="AE100" s="3"/>
+      <c r="AF100" s="3"/>
+    </row>
+    <row r="101" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5652,12 +7019,6 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
@@ -5671,8 +7032,14 @@
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
-    </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA101" s="3"/>
+      <c r="AB101" s="3"/>
+      <c r="AC101" s="3"/>
+      <c r="AD101" s="3"/>
+      <c r="AE101" s="3"/>
+      <c r="AF101" s="3"/>
+    </row>
+    <row r="102" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -5680,12 +7047,6 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
@@ -5699,8 +7060,14 @@
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
-    </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA102" s="3"/>
+      <c r="AB102" s="3"/>
+      <c r="AC102" s="3"/>
+      <c r="AD102" s="3"/>
+      <c r="AE102" s="3"/>
+      <c r="AF102" s="3"/>
+    </row>
+    <row r="103" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -5708,12 +7075,6 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
@@ -5727,8 +7088,14 @@
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
-    </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA103" s="3"/>
+      <c r="AB103" s="3"/>
+      <c r="AC103" s="3"/>
+      <c r="AD103" s="3"/>
+      <c r="AE103" s="3"/>
+      <c r="AF103" s="3"/>
+    </row>
+    <row r="104" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -5736,12 +7103,6 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
@@ -5755,8 +7116,14 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
-    </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA104" s="3"/>
+      <c r="AB104" s="3"/>
+      <c r="AC104" s="3"/>
+      <c r="AD104" s="3"/>
+      <c r="AE104" s="3"/>
+      <c r="AF104" s="3"/>
+    </row>
+    <row r="105" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -5764,12 +7131,6 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
@@ -5783,8 +7144,14 @@
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
-    </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA105" s="3"/>
+      <c r="AB105" s="3"/>
+      <c r="AC105" s="3"/>
+      <c r="AD105" s="3"/>
+      <c r="AE105" s="3"/>
+      <c r="AF105" s="3"/>
+    </row>
+    <row r="106" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -5792,12 +7159,6 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
@@ -5811,8 +7172,14 @@
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
-    </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA106" s="3"/>
+      <c r="AB106" s="3"/>
+      <c r="AC106" s="3"/>
+      <c r="AD106" s="3"/>
+      <c r="AE106" s="3"/>
+      <c r="AF106" s="3"/>
+    </row>
+    <row r="107" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -5820,12 +7187,6 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
@@ -5839,8 +7200,14 @@
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
-    </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA107" s="3"/>
+      <c r="AB107" s="3"/>
+      <c r="AC107" s="3"/>
+      <c r="AD107" s="3"/>
+      <c r="AE107" s="3"/>
+      <c r="AF107" s="3"/>
+    </row>
+    <row r="108" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -5848,12 +7215,6 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
@@ -5867,8 +7228,14 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
-    </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA108" s="3"/>
+      <c r="AB108" s="3"/>
+      <c r="AC108" s="3"/>
+      <c r="AD108" s="3"/>
+      <c r="AE108" s="3"/>
+      <c r="AF108" s="3"/>
+    </row>
+    <row r="109" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -5876,12 +7243,6 @@
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
@@ -5895,8 +7256,14 @@
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
-    </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA109" s="3"/>
+      <c r="AB109" s="3"/>
+      <c r="AC109" s="3"/>
+      <c r="AD109" s="3"/>
+      <c r="AE109" s="3"/>
+      <c r="AF109" s="3"/>
+    </row>
+    <row r="110" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -5904,12 +7271,6 @@
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
@@ -5923,8 +7284,14 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
-    </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA110" s="3"/>
+      <c r="AB110" s="3"/>
+      <c r="AC110" s="3"/>
+      <c r="AD110" s="3"/>
+      <c r="AE110" s="3"/>
+      <c r="AF110" s="3"/>
+    </row>
+    <row r="111" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -5932,12 +7299,6 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
@@ -5951,8 +7312,14 @@
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
-    </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA111" s="3"/>
+      <c r="AB111" s="3"/>
+      <c r="AC111" s="3"/>
+      <c r="AD111" s="3"/>
+      <c r="AE111" s="3"/>
+      <c r="AF111" s="3"/>
+    </row>
+    <row r="112" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -5960,12 +7327,6 @@
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
@@ -5979,8 +7340,14 @@
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
-    </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA112" s="3"/>
+      <c r="AB112" s="3"/>
+      <c r="AC112" s="3"/>
+      <c r="AD112" s="3"/>
+      <c r="AE112" s="3"/>
+      <c r="AF112" s="3"/>
+    </row>
+    <row r="113" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -5988,12 +7355,6 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-      <c r="M113" s="3"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
@@ -6007,8 +7368,14 @@
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
-    </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA113" s="3"/>
+      <c r="AB113" s="3"/>
+      <c r="AC113" s="3"/>
+      <c r="AD113" s="3"/>
+      <c r="AE113" s="3"/>
+      <c r="AF113" s="3"/>
+    </row>
+    <row r="114" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6016,12 +7383,6 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
-      <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
@@ -6035,8 +7396,14 @@
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
-    </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA114" s="3"/>
+      <c r="AB114" s="3"/>
+      <c r="AC114" s="3"/>
+      <c r="AD114" s="3"/>
+      <c r="AE114" s="3"/>
+      <c r="AF114" s="3"/>
+    </row>
+    <row r="115" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6044,12 +7411,6 @@
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-      <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
@@ -6063,8 +7424,14 @@
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
-    </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA115" s="3"/>
+      <c r="AB115" s="3"/>
+      <c r="AC115" s="3"/>
+      <c r="AD115" s="3"/>
+      <c r="AE115" s="3"/>
+      <c r="AF115" s="3"/>
+    </row>
+    <row r="116" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6072,12 +7439,6 @@
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
-      <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
@@ -6091,8 +7452,14 @@
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
-    </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA116" s="3"/>
+      <c r="AB116" s="3"/>
+      <c r="AC116" s="3"/>
+      <c r="AD116" s="3"/>
+      <c r="AE116" s="3"/>
+      <c r="AF116" s="3"/>
+    </row>
+    <row r="117" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6100,12 +7467,6 @@
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
-      <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
@@ -6119,8 +7480,14 @@
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
-    </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA117" s="3"/>
+      <c r="AB117" s="3"/>
+      <c r="AC117" s="3"/>
+      <c r="AD117" s="3"/>
+      <c r="AE117" s="3"/>
+      <c r="AF117" s="3"/>
+    </row>
+    <row r="118" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6128,12 +7495,6 @@
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
-      <c r="L118" s="3"/>
-      <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
@@ -6147,8 +7508,14 @@
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
-    </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA118" s="3"/>
+      <c r="AB118" s="3"/>
+      <c r="AC118" s="3"/>
+      <c r="AD118" s="3"/>
+      <c r="AE118" s="3"/>
+      <c r="AF118" s="3"/>
+    </row>
+    <row r="119" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6156,12 +7523,6 @@
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
-      <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
@@ -6175,8 +7536,14 @@
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
-    </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA119" s="3"/>
+      <c r="AB119" s="3"/>
+      <c r="AC119" s="3"/>
+      <c r="AD119" s="3"/>
+      <c r="AE119" s="3"/>
+      <c r="AF119" s="3"/>
+    </row>
+    <row r="120" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6184,12 +7551,6 @@
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
-      <c r="L120" s="3"/>
-      <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
@@ -6203,8 +7564,14 @@
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
-    </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA120" s="3"/>
+      <c r="AB120" s="3"/>
+      <c r="AC120" s="3"/>
+      <c r="AD120" s="3"/>
+      <c r="AE120" s="3"/>
+      <c r="AF120" s="3"/>
+    </row>
+    <row r="121" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6212,12 +7579,6 @@
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
-      <c r="L121" s="3"/>
-      <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
@@ -6231,8 +7592,14 @@
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
-    </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA121" s="3"/>
+      <c r="AB121" s="3"/>
+      <c r="AC121" s="3"/>
+      <c r="AD121" s="3"/>
+      <c r="AE121" s="3"/>
+      <c r="AF121" s="3"/>
+    </row>
+    <row r="122" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6240,12 +7607,6 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="3"/>
-      <c r="L122" s="3"/>
-      <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
       <c r="P122" s="3"/>
@@ -6259,8 +7620,14 @@
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
-    </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA122" s="3"/>
+      <c r="AB122" s="3"/>
+      <c r="AC122" s="3"/>
+      <c r="AD122" s="3"/>
+      <c r="AE122" s="3"/>
+      <c r="AF122" s="3"/>
+    </row>
+    <row r="123" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6268,12 +7635,6 @@
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3"/>
-      <c r="L123" s="3"/>
-      <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
@@ -6287,8 +7648,14 @@
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
-    </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA123" s="3"/>
+      <c r="AB123" s="3"/>
+      <c r="AC123" s="3"/>
+      <c r="AD123" s="3"/>
+      <c r="AE123" s="3"/>
+      <c r="AF123" s="3"/>
+    </row>
+    <row r="124" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6296,12 +7663,6 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3"/>
-      <c r="L124" s="3"/>
-      <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
       <c r="P124" s="3"/>
@@ -6315,8 +7676,14 @@
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
-    </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA124" s="3"/>
+      <c r="AB124" s="3"/>
+      <c r="AC124" s="3"/>
+      <c r="AD124" s="3"/>
+      <c r="AE124" s="3"/>
+      <c r="AF124" s="3"/>
+    </row>
+    <row r="125" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6324,12 +7691,6 @@
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
-      <c r="L125" s="3"/>
-      <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
@@ -6343,8 +7704,14 @@
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
-    </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA125" s="3"/>
+      <c r="AB125" s="3"/>
+      <c r="AC125" s="3"/>
+      <c r="AD125" s="3"/>
+      <c r="AE125" s="3"/>
+      <c r="AF125" s="3"/>
+    </row>
+    <row r="126" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6352,12 +7719,6 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
-      <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
       <c r="P126" s="3"/>
@@ -6371,8 +7732,14 @@
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
-    </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA126" s="3"/>
+      <c r="AB126" s="3"/>
+      <c r="AC126" s="3"/>
+      <c r="AD126" s="3"/>
+      <c r="AE126" s="3"/>
+      <c r="AF126" s="3"/>
+    </row>
+    <row r="127" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6380,12 +7747,6 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-      <c r="L127" s="3"/>
-      <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
       <c r="P127" s="3"/>
@@ -6399,8 +7760,14 @@
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
-    </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA127" s="3"/>
+      <c r="AB127" s="3"/>
+      <c r="AC127" s="3"/>
+      <c r="AD127" s="3"/>
+      <c r="AE127" s="3"/>
+      <c r="AF127" s="3"/>
+    </row>
+    <row r="128" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6408,12 +7775,6 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
-      <c r="L128" s="3"/>
-      <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
       <c r="P128" s="3"/>
@@ -6427,8 +7788,14 @@
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
-    </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA128" s="3"/>
+      <c r="AB128" s="3"/>
+      <c r="AC128" s="3"/>
+      <c r="AD128" s="3"/>
+      <c r="AE128" s="3"/>
+      <c r="AF128" s="3"/>
+    </row>
+    <row r="129" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6436,12 +7803,6 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
-      <c r="L129" s="3"/>
-      <c r="M129" s="3"/>
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
@@ -6455,8 +7816,14 @@
       <c r="X129" s="3"/>
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
-    </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA129" s="3"/>
+      <c r="AB129" s="3"/>
+      <c r="AC129" s="3"/>
+      <c r="AD129" s="3"/>
+      <c r="AE129" s="3"/>
+      <c r="AF129" s="3"/>
+    </row>
+    <row r="130" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6464,12 +7831,6 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
-      <c r="L130" s="3"/>
-      <c r="M130" s="3"/>
       <c r="N130" s="3"/>
       <c r="O130" s="3"/>
       <c r="P130" s="3"/>
@@ -6483,8 +7844,14 @@
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
-    </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA130" s="3"/>
+      <c r="AB130" s="3"/>
+      <c r="AC130" s="3"/>
+      <c r="AD130" s="3"/>
+      <c r="AE130" s="3"/>
+      <c r="AF130" s="3"/>
+    </row>
+    <row r="131" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6492,12 +7859,6 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
-      <c r="L131" s="3"/>
-      <c r="M131" s="3"/>
       <c r="N131" s="3"/>
       <c r="O131" s="3"/>
       <c r="P131" s="3"/>
@@ -6511,8 +7872,14 @@
       <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
-    </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA131" s="3"/>
+      <c r="AB131" s="3"/>
+      <c r="AC131" s="3"/>
+      <c r="AD131" s="3"/>
+      <c r="AE131" s="3"/>
+      <c r="AF131" s="3"/>
+    </row>
+    <row r="132" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6520,12 +7887,6 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="3"/>
-      <c r="M132" s="3"/>
       <c r="N132" s="3"/>
       <c r="O132" s="3"/>
       <c r="P132" s="3"/>
@@ -6539,8 +7900,14 @@
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
-    </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA132" s="3"/>
+      <c r="AB132" s="3"/>
+      <c r="AC132" s="3"/>
+      <c r="AD132" s="3"/>
+      <c r="AE132" s="3"/>
+      <c r="AF132" s="3"/>
+    </row>
+    <row r="133" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -6548,12 +7915,6 @@
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
-      <c r="L133" s="3"/>
-      <c r="M133" s="3"/>
       <c r="N133" s="3"/>
       <c r="O133" s="3"/>
       <c r="P133" s="3"/>
@@ -6567,8 +7928,14 @@
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
-    </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA133" s="3"/>
+      <c r="AB133" s="3"/>
+      <c r="AC133" s="3"/>
+      <c r="AD133" s="3"/>
+      <c r="AE133" s="3"/>
+      <c r="AF133" s="3"/>
+    </row>
+    <row r="134" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -6576,12 +7943,6 @@
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
-      <c r="L134" s="3"/>
-      <c r="M134" s="3"/>
       <c r="N134" s="3"/>
       <c r="O134" s="3"/>
       <c r="P134" s="3"/>
@@ -6595,8 +7956,14 @@
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
-    </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA134" s="3"/>
+      <c r="AB134" s="3"/>
+      <c r="AC134" s="3"/>
+      <c r="AD134" s="3"/>
+      <c r="AE134" s="3"/>
+      <c r="AF134" s="3"/>
+    </row>
+    <row r="135" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -6604,12 +7971,6 @@
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
-      <c r="L135" s="3"/>
-      <c r="M135" s="3"/>
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
       <c r="P135" s="3"/>
@@ -6623,8 +7984,14 @@
       <c r="X135" s="3"/>
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
-    </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA135" s="3"/>
+      <c r="AB135" s="3"/>
+      <c r="AC135" s="3"/>
+      <c r="AD135" s="3"/>
+      <c r="AE135" s="3"/>
+      <c r="AF135" s="3"/>
+    </row>
+    <row r="136" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -6632,12 +7999,6 @@
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
-      <c r="K136" s="3"/>
-      <c r="L136" s="3"/>
-      <c r="M136" s="3"/>
       <c r="N136" s="3"/>
       <c r="O136" s="3"/>
       <c r="P136" s="3"/>
@@ -6651,8 +8012,14 @@
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
-    </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA136" s="3"/>
+      <c r="AB136" s="3"/>
+      <c r="AC136" s="3"/>
+      <c r="AD136" s="3"/>
+      <c r="AE136" s="3"/>
+      <c r="AF136" s="3"/>
+    </row>
+    <row r="137" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -6660,12 +8027,6 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
-      <c r="K137" s="3"/>
-      <c r="L137" s="3"/>
-      <c r="M137" s="3"/>
       <c r="N137" s="3"/>
       <c r="O137" s="3"/>
       <c r="P137" s="3"/>
@@ -6679,8 +8040,14 @@
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
-    </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA137" s="3"/>
+      <c r="AB137" s="3"/>
+      <c r="AC137" s="3"/>
+      <c r="AD137" s="3"/>
+      <c r="AE137" s="3"/>
+      <c r="AF137" s="3"/>
+    </row>
+    <row r="138" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -6688,12 +8055,6 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
-      <c r="K138" s="3"/>
-      <c r="L138" s="3"/>
-      <c r="M138" s="3"/>
       <c r="N138" s="3"/>
       <c r="O138" s="3"/>
       <c r="P138" s="3"/>
@@ -6707,8 +8068,14 @@
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
-    </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA138" s="3"/>
+      <c r="AB138" s="3"/>
+      <c r="AC138" s="3"/>
+      <c r="AD138" s="3"/>
+      <c r="AE138" s="3"/>
+      <c r="AF138" s="3"/>
+    </row>
+    <row r="139" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -6716,12 +8083,6 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
-      <c r="L139" s="3"/>
-      <c r="M139" s="3"/>
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
       <c r="P139" s="3"/>
@@ -6735,8 +8096,14 @@
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
-    </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA139" s="3"/>
+      <c r="AB139" s="3"/>
+      <c r="AC139" s="3"/>
+      <c r="AD139" s="3"/>
+      <c r="AE139" s="3"/>
+      <c r="AF139" s="3"/>
+    </row>
+    <row r="140" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -6744,12 +8111,6 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
-      <c r="K140" s="3"/>
-      <c r="L140" s="3"/>
-      <c r="M140" s="3"/>
       <c r="N140" s="3"/>
       <c r="O140" s="3"/>
       <c r="P140" s="3"/>
@@ -6763,8 +8124,14 @@
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
-    </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA140" s="3"/>
+      <c r="AB140" s="3"/>
+      <c r="AC140" s="3"/>
+      <c r="AD140" s="3"/>
+      <c r="AE140" s="3"/>
+      <c r="AF140" s="3"/>
+    </row>
+    <row r="141" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -6772,12 +8139,6 @@
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
-      <c r="K141" s="3"/>
-      <c r="L141" s="3"/>
-      <c r="M141" s="3"/>
       <c r="N141" s="3"/>
       <c r="O141" s="3"/>
       <c r="P141" s="3"/>
@@ -6791,8 +8152,14 @@
       <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
-    </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA141" s="3"/>
+      <c r="AB141" s="3"/>
+      <c r="AC141" s="3"/>
+      <c r="AD141" s="3"/>
+      <c r="AE141" s="3"/>
+      <c r="AF141" s="3"/>
+    </row>
+    <row r="142" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -6800,12 +8167,6 @@
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
-      <c r="K142" s="3"/>
-      <c r="L142" s="3"/>
-      <c r="M142" s="3"/>
       <c r="N142" s="3"/>
       <c r="O142" s="3"/>
       <c r="P142" s="3"/>
@@ -6819,8 +8180,14 @@
       <c r="X142" s="3"/>
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
-    </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA142" s="3"/>
+      <c r="AB142" s="3"/>
+      <c r="AC142" s="3"/>
+      <c r="AD142" s="3"/>
+      <c r="AE142" s="3"/>
+      <c r="AF142" s="3"/>
+    </row>
+    <row r="143" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -6828,12 +8195,6 @@
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
-      <c r="J143" s="3"/>
-      <c r="K143" s="3"/>
-      <c r="L143" s="3"/>
-      <c r="M143" s="3"/>
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
       <c r="P143" s="3"/>
@@ -6847,8 +8208,14 @@
       <c r="X143" s="3"/>
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
-    </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA143" s="3"/>
+      <c r="AB143" s="3"/>
+      <c r="AC143" s="3"/>
+      <c r="AD143" s="3"/>
+      <c r="AE143" s="3"/>
+      <c r="AF143" s="3"/>
+    </row>
+    <row r="144" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -6856,12 +8223,6 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3"/>
-      <c r="L144" s="3"/>
-      <c r="M144" s="3"/>
       <c r="N144" s="3"/>
       <c r="O144" s="3"/>
       <c r="P144" s="3"/>
@@ -6875,8 +8236,14 @@
       <c r="X144" s="3"/>
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
-    </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA144" s="3"/>
+      <c r="AB144" s="3"/>
+      <c r="AC144" s="3"/>
+      <c r="AD144" s="3"/>
+      <c r="AE144" s="3"/>
+      <c r="AF144" s="3"/>
+    </row>
+    <row r="145" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -6884,12 +8251,6 @@
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3"/>
-      <c r="L145" s="3"/>
-      <c r="M145" s="3"/>
       <c r="N145" s="3"/>
       <c r="O145" s="3"/>
       <c r="P145" s="3"/>
@@ -6903,8 +8264,14 @@
       <c r="X145" s="3"/>
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
-    </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA145" s="3"/>
+      <c r="AB145" s="3"/>
+      <c r="AC145" s="3"/>
+      <c r="AD145" s="3"/>
+      <c r="AE145" s="3"/>
+      <c r="AF145" s="3"/>
+    </row>
+    <row r="146" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -6912,12 +8279,6 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
-      <c r="L146" s="3"/>
-      <c r="M146" s="3"/>
       <c r="N146" s="3"/>
       <c r="O146" s="3"/>
       <c r="P146" s="3"/>
@@ -6931,8 +8292,14 @@
       <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
-    </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA146" s="3"/>
+      <c r="AB146" s="3"/>
+      <c r="AC146" s="3"/>
+      <c r="AD146" s="3"/>
+      <c r="AE146" s="3"/>
+      <c r="AF146" s="3"/>
+    </row>
+    <row r="147" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -6940,12 +8307,6 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
-      <c r="K147" s="3"/>
-      <c r="L147" s="3"/>
-      <c r="M147" s="3"/>
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
       <c r="P147" s="3"/>
@@ -6959,8 +8320,14 @@
       <c r="X147" s="3"/>
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
-    </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA147" s="3"/>
+      <c r="AB147" s="3"/>
+      <c r="AC147" s="3"/>
+      <c r="AD147" s="3"/>
+      <c r="AE147" s="3"/>
+      <c r="AF147" s="3"/>
+    </row>
+    <row r="148" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -6968,12 +8335,6 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
-      <c r="L148" s="3"/>
-      <c r="M148" s="3"/>
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
       <c r="P148" s="3"/>
@@ -6987,8 +8348,14 @@
       <c r="X148" s="3"/>
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
-    </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA148" s="3"/>
+      <c r="AB148" s="3"/>
+      <c r="AC148" s="3"/>
+      <c r="AD148" s="3"/>
+      <c r="AE148" s="3"/>
+      <c r="AF148" s="3"/>
+    </row>
+    <row r="149" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -6996,12 +8363,6 @@
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3"/>
-      <c r="L149" s="3"/>
-      <c r="M149" s="3"/>
       <c r="N149" s="3"/>
       <c r="O149" s="3"/>
       <c r="P149" s="3"/>
@@ -7015,8 +8376,14 @@
       <c r="X149" s="3"/>
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
-    </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA149" s="3"/>
+      <c r="AB149" s="3"/>
+      <c r="AC149" s="3"/>
+      <c r="AD149" s="3"/>
+      <c r="AE149" s="3"/>
+      <c r="AF149" s="3"/>
+    </row>
+    <row r="150" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -7024,12 +8391,6 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
-      <c r="L150" s="3"/>
-      <c r="M150" s="3"/>
       <c r="N150" s="3"/>
       <c r="O150" s="3"/>
       <c r="P150" s="3"/>
@@ -7043,8 +8404,14 @@
       <c r="X150" s="3"/>
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
-    </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA150" s="3"/>
+      <c r="AB150" s="3"/>
+      <c r="AC150" s="3"/>
+      <c r="AD150" s="3"/>
+      <c r="AE150" s="3"/>
+      <c r="AF150" s="3"/>
+    </row>
+    <row r="151" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -7052,12 +8419,6 @@
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
-      <c r="L151" s="3"/>
-      <c r="M151" s="3"/>
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
       <c r="P151" s="3"/>
@@ -7071,8 +8432,14 @@
       <c r="X151" s="3"/>
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
-    </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA151" s="3"/>
+      <c r="AB151" s="3"/>
+      <c r="AC151" s="3"/>
+      <c r="AD151" s="3"/>
+      <c r="AE151" s="3"/>
+      <c r="AF151" s="3"/>
+    </row>
+    <row r="152" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -7080,12 +8447,6 @@
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
-      <c r="K152" s="3"/>
-      <c r="L152" s="3"/>
-      <c r="M152" s="3"/>
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
       <c r="P152" s="3"/>
@@ -7099,8 +8460,14 @@
       <c r="X152" s="3"/>
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
-    </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA152" s="3"/>
+      <c r="AB152" s="3"/>
+      <c r="AC152" s="3"/>
+      <c r="AD152" s="3"/>
+      <c r="AE152" s="3"/>
+      <c r="AF152" s="3"/>
+    </row>
+    <row r="153" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -7108,12 +8475,6 @@
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
-      <c r="K153" s="3"/>
-      <c r="L153" s="3"/>
-      <c r="M153" s="3"/>
       <c r="N153" s="3"/>
       <c r="O153" s="3"/>
       <c r="P153" s="3"/>
@@ -7127,8 +8488,14 @@
       <c r="X153" s="3"/>
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
-    </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA153" s="3"/>
+      <c r="AB153" s="3"/>
+      <c r="AC153" s="3"/>
+      <c r="AD153" s="3"/>
+      <c r="AE153" s="3"/>
+      <c r="AF153" s="3"/>
+    </row>
+    <row r="154" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -7136,12 +8503,6 @@
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
-      <c r="K154" s="3"/>
-      <c r="L154" s="3"/>
-      <c r="M154" s="3"/>
       <c r="N154" s="3"/>
       <c r="O154" s="3"/>
       <c r="P154" s="3"/>
@@ -7155,8 +8516,14 @@
       <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
-    </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA154" s="3"/>
+      <c r="AB154" s="3"/>
+      <c r="AC154" s="3"/>
+      <c r="AD154" s="3"/>
+      <c r="AE154" s="3"/>
+      <c r="AF154" s="3"/>
+    </row>
+    <row r="155" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -7164,12 +8531,6 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
-      <c r="K155" s="3"/>
-      <c r="L155" s="3"/>
-      <c r="M155" s="3"/>
       <c r="N155" s="3"/>
       <c r="O155" s="3"/>
       <c r="P155" s="3"/>
@@ -7183,8 +8544,14 @@
       <c r="X155" s="3"/>
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
-    </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA155" s="3"/>
+      <c r="AB155" s="3"/>
+      <c r="AC155" s="3"/>
+      <c r="AD155" s="3"/>
+      <c r="AE155" s="3"/>
+      <c r="AF155" s="3"/>
+    </row>
+    <row r="156" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -7192,12 +8559,6 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
-      <c r="J156" s="3"/>
-      <c r="K156" s="3"/>
-      <c r="L156" s="3"/>
-      <c r="M156" s="3"/>
       <c r="N156" s="3"/>
       <c r="O156" s="3"/>
       <c r="P156" s="3"/>
@@ -7211,8 +8572,14 @@
       <c r="X156" s="3"/>
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
-    </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA156" s="3"/>
+      <c r="AB156" s="3"/>
+      <c r="AC156" s="3"/>
+      <c r="AD156" s="3"/>
+      <c r="AE156" s="3"/>
+      <c r="AF156" s="3"/>
+    </row>
+    <row r="157" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -7220,12 +8587,6 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
-      <c r="K157" s="3"/>
-      <c r="L157" s="3"/>
-      <c r="M157" s="3"/>
       <c r="N157" s="3"/>
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
@@ -7239,8 +8600,14 @@
       <c r="X157" s="3"/>
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
-    </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA157" s="3"/>
+      <c r="AB157" s="3"/>
+      <c r="AC157" s="3"/>
+      <c r="AD157" s="3"/>
+      <c r="AE157" s="3"/>
+      <c r="AF157" s="3"/>
+    </row>
+    <row r="158" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -7248,12 +8615,6 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
-      <c r="J158" s="3"/>
-      <c r="K158" s="3"/>
-      <c r="L158" s="3"/>
-      <c r="M158" s="3"/>
       <c r="N158" s="3"/>
       <c r="O158" s="3"/>
       <c r="P158" s="3"/>
@@ -7267,8 +8628,14 @@
       <c r="X158" s="3"/>
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
-    </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA158" s="3"/>
+      <c r="AB158" s="3"/>
+      <c r="AC158" s="3"/>
+      <c r="AD158" s="3"/>
+      <c r="AE158" s="3"/>
+      <c r="AF158" s="3"/>
+    </row>
+    <row r="159" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -7276,12 +8643,6 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
-      <c r="J159" s="3"/>
-      <c r="K159" s="3"/>
-      <c r="L159" s="3"/>
-      <c r="M159" s="3"/>
       <c r="N159" s="3"/>
       <c r="O159" s="3"/>
       <c r="P159" s="3"/>
@@ -7295,8 +8656,14 @@
       <c r="X159" s="3"/>
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
-    </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA159" s="3"/>
+      <c r="AB159" s="3"/>
+      <c r="AC159" s="3"/>
+      <c r="AD159" s="3"/>
+      <c r="AE159" s="3"/>
+      <c r="AF159" s="3"/>
+    </row>
+    <row r="160" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -7304,12 +8671,6 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
-      <c r="K160" s="3"/>
-      <c r="L160" s="3"/>
-      <c r="M160" s="3"/>
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
       <c r="P160" s="3"/>
@@ -7323,8 +8684,14 @@
       <c r="X160" s="3"/>
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
-    </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA160" s="3"/>
+      <c r="AB160" s="3"/>
+      <c r="AC160" s="3"/>
+      <c r="AD160" s="3"/>
+      <c r="AE160" s="3"/>
+      <c r="AF160" s="3"/>
+    </row>
+    <row r="161" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -7332,12 +8699,6 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="3"/>
-      <c r="L161" s="3"/>
-      <c r="M161" s="3"/>
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
       <c r="P161" s="3"/>
@@ -7351,8 +8712,14 @@
       <c r="X161" s="3"/>
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
-    </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA161" s="3"/>
+      <c r="AB161" s="3"/>
+      <c r="AC161" s="3"/>
+      <c r="AD161" s="3"/>
+      <c r="AE161" s="3"/>
+      <c r="AF161" s="3"/>
+    </row>
+    <row r="162" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -7360,12 +8727,6 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
-      <c r="K162" s="3"/>
-      <c r="L162" s="3"/>
-      <c r="M162" s="3"/>
       <c r="N162" s="3"/>
       <c r="O162" s="3"/>
       <c r="P162" s="3"/>
@@ -7379,8 +8740,14 @@
       <c r="X162" s="3"/>
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
-    </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA162" s="3"/>
+      <c r="AB162" s="3"/>
+      <c r="AC162" s="3"/>
+      <c r="AD162" s="3"/>
+      <c r="AE162" s="3"/>
+      <c r="AF162" s="3"/>
+    </row>
+    <row r="163" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -7388,12 +8755,6 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
-      <c r="K163" s="3"/>
-      <c r="L163" s="3"/>
-      <c r="M163" s="3"/>
       <c r="N163" s="3"/>
       <c r="O163" s="3"/>
       <c r="P163" s="3"/>
@@ -7407,8 +8768,14 @@
       <c r="X163" s="3"/>
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
-    </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA163" s="3"/>
+      <c r="AB163" s="3"/>
+      <c r="AC163" s="3"/>
+      <c r="AD163" s="3"/>
+      <c r="AE163" s="3"/>
+      <c r="AF163" s="3"/>
+    </row>
+    <row r="164" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -7416,12 +8783,6 @@
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
-      <c r="K164" s="3"/>
-      <c r="L164" s="3"/>
-      <c r="M164" s="3"/>
       <c r="N164" s="3"/>
       <c r="O164" s="3"/>
       <c r="P164" s="3"/>
@@ -7435,8 +8796,14 @@
       <c r="X164" s="3"/>
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
-    </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA164" s="3"/>
+      <c r="AB164" s="3"/>
+      <c r="AC164" s="3"/>
+      <c r="AD164" s="3"/>
+      <c r="AE164" s="3"/>
+      <c r="AF164" s="3"/>
+    </row>
+    <row r="165" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -7444,12 +8811,6 @@
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3"/>
-      <c r="L165" s="3"/>
-      <c r="M165" s="3"/>
       <c r="N165" s="3"/>
       <c r="O165" s="3"/>
       <c r="P165" s="3"/>
@@ -7463,8 +8824,14 @@
       <c r="X165" s="3"/>
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
-    </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA165" s="3"/>
+      <c r="AB165" s="3"/>
+      <c r="AC165" s="3"/>
+      <c r="AD165" s="3"/>
+      <c r="AE165" s="3"/>
+      <c r="AF165" s="3"/>
+    </row>
+    <row r="166" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -7472,12 +8839,6 @@
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
-      <c r="K166" s="3"/>
-      <c r="L166" s="3"/>
-      <c r="M166" s="3"/>
       <c r="N166" s="3"/>
       <c r="O166" s="3"/>
       <c r="P166" s="3"/>
@@ -7491,8 +8852,14 @@
       <c r="X166" s="3"/>
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
-    </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA166" s="3"/>
+      <c r="AB166" s="3"/>
+      <c r="AC166" s="3"/>
+      <c r="AD166" s="3"/>
+      <c r="AE166" s="3"/>
+      <c r="AF166" s="3"/>
+    </row>
+    <row r="167" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -7500,12 +8867,6 @@
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
-      <c r="K167" s="3"/>
-      <c r="L167" s="3"/>
-      <c r="M167" s="3"/>
       <c r="N167" s="3"/>
       <c r="O167" s="3"/>
       <c r="P167" s="3"/>
@@ -7519,8 +8880,14 @@
       <c r="X167" s="3"/>
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
-    </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA167" s="3"/>
+      <c r="AB167" s="3"/>
+      <c r="AC167" s="3"/>
+      <c r="AD167" s="3"/>
+      <c r="AE167" s="3"/>
+      <c r="AF167" s="3"/>
+    </row>
+    <row r="168" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -7528,12 +8895,6 @@
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
-      <c r="K168" s="3"/>
-      <c r="L168" s="3"/>
-      <c r="M168" s="3"/>
       <c r="N168" s="3"/>
       <c r="O168" s="3"/>
       <c r="P168" s="3"/>
@@ -7547,8 +8908,14 @@
       <c r="X168" s="3"/>
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
-    </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA168" s="3"/>
+      <c r="AB168" s="3"/>
+      <c r="AC168" s="3"/>
+      <c r="AD168" s="3"/>
+      <c r="AE168" s="3"/>
+      <c r="AF168" s="3"/>
+    </row>
+    <row r="169" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -7556,12 +8923,6 @@
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3"/>
-      <c r="L169" s="3"/>
-      <c r="M169" s="3"/>
       <c r="N169" s="3"/>
       <c r="O169" s="3"/>
       <c r="P169" s="3"/>
@@ -7575,8 +8936,14 @@
       <c r="X169" s="3"/>
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
-    </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA169" s="3"/>
+      <c r="AB169" s="3"/>
+      <c r="AC169" s="3"/>
+      <c r="AD169" s="3"/>
+      <c r="AE169" s="3"/>
+      <c r="AF169" s="3"/>
+    </row>
+    <row r="170" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -7584,12 +8951,6 @@
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3"/>
-      <c r="L170" s="3"/>
-      <c r="M170" s="3"/>
       <c r="N170" s="3"/>
       <c r="O170" s="3"/>
       <c r="P170" s="3"/>
@@ -7603,8 +8964,14 @@
       <c r="X170" s="3"/>
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
-    </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA170" s="3"/>
+      <c r="AB170" s="3"/>
+      <c r="AC170" s="3"/>
+      <c r="AD170" s="3"/>
+      <c r="AE170" s="3"/>
+      <c r="AF170" s="3"/>
+    </row>
+    <row r="171" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -7612,12 +8979,6 @@
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
-      <c r="K171" s="3"/>
-      <c r="L171" s="3"/>
-      <c r="M171" s="3"/>
       <c r="N171" s="3"/>
       <c r="O171" s="3"/>
       <c r="P171" s="3"/>
@@ -7631,8 +8992,14 @@
       <c r="X171" s="3"/>
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
-    </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA171" s="3"/>
+      <c r="AB171" s="3"/>
+      <c r="AC171" s="3"/>
+      <c r="AD171" s="3"/>
+      <c r="AE171" s="3"/>
+      <c r="AF171" s="3"/>
+    </row>
+    <row r="172" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -7640,12 +9007,6 @@
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
-      <c r="L172" s="3"/>
-      <c r="M172" s="3"/>
       <c r="N172" s="3"/>
       <c r="O172" s="3"/>
       <c r="P172" s="3"/>
@@ -7659,8 +9020,14 @@
       <c r="X172" s="3"/>
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
-    </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA172" s="3"/>
+      <c r="AB172" s="3"/>
+      <c r="AC172" s="3"/>
+      <c r="AD172" s="3"/>
+      <c r="AE172" s="3"/>
+      <c r="AF172" s="3"/>
+    </row>
+    <row r="173" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -7668,12 +9035,6 @@
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
-      <c r="K173" s="3"/>
-      <c r="L173" s="3"/>
-      <c r="M173" s="3"/>
       <c r="N173" s="3"/>
       <c r="O173" s="3"/>
       <c r="P173" s="3"/>
@@ -7687,8 +9048,14 @@
       <c r="X173" s="3"/>
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
-    </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA173" s="3"/>
+      <c r="AB173" s="3"/>
+      <c r="AC173" s="3"/>
+      <c r="AD173" s="3"/>
+      <c r="AE173" s="3"/>
+      <c r="AF173" s="3"/>
+    </row>
+    <row r="174" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -7696,12 +9063,6 @@
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-      <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
-      <c r="K174" s="3"/>
-      <c r="L174" s="3"/>
-      <c r="M174" s="3"/>
       <c r="N174" s="3"/>
       <c r="O174" s="3"/>
       <c r="P174" s="3"/>
@@ -7715,8 +9076,14 @@
       <c r="X174" s="3"/>
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
-    </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA174" s="3"/>
+      <c r="AB174" s="3"/>
+      <c r="AC174" s="3"/>
+      <c r="AD174" s="3"/>
+      <c r="AE174" s="3"/>
+      <c r="AF174" s="3"/>
+    </row>
+    <row r="175" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -7724,12 +9091,6 @@
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
-      <c r="I175" s="3"/>
-      <c r="J175" s="3"/>
-      <c r="K175" s="3"/>
-      <c r="L175" s="3"/>
-      <c r="M175" s="3"/>
       <c r="N175" s="3"/>
       <c r="O175" s="3"/>
       <c r="P175" s="3"/>
@@ -7743,8 +9104,14 @@
       <c r="X175" s="3"/>
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
-    </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA175" s="3"/>
+      <c r="AB175" s="3"/>
+      <c r="AC175" s="3"/>
+      <c r="AD175" s="3"/>
+      <c r="AE175" s="3"/>
+      <c r="AF175" s="3"/>
+    </row>
+    <row r="176" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -7752,12 +9119,6 @@
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
-      <c r="K176" s="3"/>
-      <c r="L176" s="3"/>
-      <c r="M176" s="3"/>
       <c r="N176" s="3"/>
       <c r="O176" s="3"/>
       <c r="P176" s="3"/>
@@ -7771,8 +9132,14 @@
       <c r="X176" s="3"/>
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
-    </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA176" s="3"/>
+      <c r="AB176" s="3"/>
+      <c r="AC176" s="3"/>
+      <c r="AD176" s="3"/>
+      <c r="AE176" s="3"/>
+      <c r="AF176" s="3"/>
+    </row>
+    <row r="177" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -7780,12 +9147,6 @@
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-      <c r="I177" s="3"/>
-      <c r="J177" s="3"/>
-      <c r="K177" s="3"/>
-      <c r="L177" s="3"/>
-      <c r="M177" s="3"/>
       <c r="N177" s="3"/>
       <c r="O177" s="3"/>
       <c r="P177" s="3"/>
@@ -7799,8 +9160,14 @@
       <c r="X177" s="3"/>
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
-    </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA177" s="3"/>
+      <c r="AB177" s="3"/>
+      <c r="AC177" s="3"/>
+      <c r="AD177" s="3"/>
+      <c r="AE177" s="3"/>
+      <c r="AF177" s="3"/>
+    </row>
+    <row r="178" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -7808,12 +9175,6 @@
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
-      <c r="J178" s="3"/>
-      <c r="K178" s="3"/>
-      <c r="L178" s="3"/>
-      <c r="M178" s="3"/>
       <c r="N178" s="3"/>
       <c r="O178" s="3"/>
       <c r="P178" s="3"/>
@@ -7827,8 +9188,14 @@
       <c r="X178" s="3"/>
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
-    </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA178" s="3"/>
+      <c r="AB178" s="3"/>
+      <c r="AC178" s="3"/>
+      <c r="AD178" s="3"/>
+      <c r="AE178" s="3"/>
+      <c r="AF178" s="3"/>
+    </row>
+    <row r="179" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -7836,12 +9203,6 @@
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
-      <c r="K179" s="3"/>
-      <c r="L179" s="3"/>
-      <c r="M179" s="3"/>
       <c r="N179" s="3"/>
       <c r="O179" s="3"/>
       <c r="P179" s="3"/>
@@ -7855,8 +9216,14 @@
       <c r="X179" s="3"/>
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
-    </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA179" s="3"/>
+      <c r="AB179" s="3"/>
+      <c r="AC179" s="3"/>
+      <c r="AD179" s="3"/>
+      <c r="AE179" s="3"/>
+      <c r="AF179" s="3"/>
+    </row>
+    <row r="180" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -7864,12 +9231,6 @@
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
-      <c r="K180" s="3"/>
-      <c r="L180" s="3"/>
-      <c r="M180" s="3"/>
       <c r="N180" s="3"/>
       <c r="O180" s="3"/>
       <c r="P180" s="3"/>
@@ -7883,8 +9244,14 @@
       <c r="X180" s="3"/>
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
-    </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA180" s="3"/>
+      <c r="AB180" s="3"/>
+      <c r="AC180" s="3"/>
+      <c r="AD180" s="3"/>
+      <c r="AE180" s="3"/>
+      <c r="AF180" s="3"/>
+    </row>
+    <row r="181" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -7892,12 +9259,6 @@
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
-      <c r="K181" s="3"/>
-      <c r="L181" s="3"/>
-      <c r="M181" s="3"/>
       <c r="N181" s="3"/>
       <c r="O181" s="3"/>
       <c r="P181" s="3"/>
@@ -7911,8 +9272,14 @@
       <c r="X181" s="3"/>
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
-    </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA181" s="3"/>
+      <c r="AB181" s="3"/>
+      <c r="AC181" s="3"/>
+      <c r="AD181" s="3"/>
+      <c r="AE181" s="3"/>
+      <c r="AF181" s="3"/>
+    </row>
+    <row r="182" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -7920,12 +9287,6 @@
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
-      <c r="J182" s="3"/>
-      <c r="K182" s="3"/>
-      <c r="L182" s="3"/>
-      <c r="M182" s="3"/>
       <c r="N182" s="3"/>
       <c r="O182" s="3"/>
       <c r="P182" s="3"/>
@@ -7939,8 +9300,14 @@
       <c r="X182" s="3"/>
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
-    </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA182" s="3"/>
+      <c r="AB182" s="3"/>
+      <c r="AC182" s="3"/>
+      <c r="AD182" s="3"/>
+      <c r="AE182" s="3"/>
+      <c r="AF182" s="3"/>
+    </row>
+    <row r="183" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -7948,12 +9315,6 @@
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
-      <c r="J183" s="3"/>
-      <c r="K183" s="3"/>
-      <c r="L183" s="3"/>
-      <c r="M183" s="3"/>
       <c r="N183" s="3"/>
       <c r="O183" s="3"/>
       <c r="P183" s="3"/>
@@ -7967,8 +9328,14 @@
       <c r="X183" s="3"/>
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
-    </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA183" s="3"/>
+      <c r="AB183" s="3"/>
+      <c r="AC183" s="3"/>
+      <c r="AD183" s="3"/>
+      <c r="AE183" s="3"/>
+      <c r="AF183" s="3"/>
+    </row>
+    <row r="184" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -7976,12 +9343,6 @@
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
-      <c r="I184" s="3"/>
-      <c r="J184" s="3"/>
-      <c r="K184" s="3"/>
-      <c r="L184" s="3"/>
-      <c r="M184" s="3"/>
       <c r="N184" s="3"/>
       <c r="O184" s="3"/>
       <c r="P184" s="3"/>
@@ -7995,8 +9356,14 @@
       <c r="X184" s="3"/>
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
-    </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA184" s="3"/>
+      <c r="AB184" s="3"/>
+      <c r="AC184" s="3"/>
+      <c r="AD184" s="3"/>
+      <c r="AE184" s="3"/>
+      <c r="AF184" s="3"/>
+    </row>
+    <row r="185" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -8004,12 +9371,6 @@
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
-      <c r="K185" s="3"/>
-      <c r="L185" s="3"/>
-      <c r="M185" s="3"/>
       <c r="N185" s="3"/>
       <c r="O185" s="3"/>
       <c r="P185" s="3"/>
@@ -8023,8 +9384,14 @@
       <c r="X185" s="3"/>
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
-    </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA185" s="3"/>
+      <c r="AB185" s="3"/>
+      <c r="AC185" s="3"/>
+      <c r="AD185" s="3"/>
+      <c r="AE185" s="3"/>
+      <c r="AF185" s="3"/>
+    </row>
+    <row r="186" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -8032,12 +9399,6 @@
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
-      <c r="K186" s="3"/>
-      <c r="L186" s="3"/>
-      <c r="M186" s="3"/>
       <c r="N186" s="3"/>
       <c r="O186" s="3"/>
       <c r="P186" s="3"/>
@@ -8051,8 +9412,14 @@
       <c r="X186" s="3"/>
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
-    </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA186" s="3"/>
+      <c r="AB186" s="3"/>
+      <c r="AC186" s="3"/>
+      <c r="AD186" s="3"/>
+      <c r="AE186" s="3"/>
+      <c r="AF186" s="3"/>
+    </row>
+    <row r="187" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -8060,12 +9427,6 @@
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
-      <c r="K187" s="3"/>
-      <c r="L187" s="3"/>
-      <c r="M187" s="3"/>
       <c r="N187" s="3"/>
       <c r="O187" s="3"/>
       <c r="P187" s="3"/>
@@ -8079,8 +9440,14 @@
       <c r="X187" s="3"/>
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
-    </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA187" s="3"/>
+      <c r="AB187" s="3"/>
+      <c r="AC187" s="3"/>
+      <c r="AD187" s="3"/>
+      <c r="AE187" s="3"/>
+      <c r="AF187" s="3"/>
+    </row>
+    <row r="188" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -8088,12 +9455,6 @@
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
-      <c r="K188" s="3"/>
-      <c r="L188" s="3"/>
-      <c r="M188" s="3"/>
       <c r="N188" s="3"/>
       <c r="O188" s="3"/>
       <c r="P188" s="3"/>
@@ -8107,8 +9468,14 @@
       <c r="X188" s="3"/>
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
-    </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA188" s="3"/>
+      <c r="AB188" s="3"/>
+      <c r="AC188" s="3"/>
+      <c r="AD188" s="3"/>
+      <c r="AE188" s="3"/>
+      <c r="AF188" s="3"/>
+    </row>
+    <row r="189" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -8116,12 +9483,6 @@
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
-      <c r="K189" s="3"/>
-      <c r="L189" s="3"/>
-      <c r="M189" s="3"/>
       <c r="N189" s="3"/>
       <c r="O189" s="3"/>
       <c r="P189" s="3"/>
@@ -8135,8 +9496,14 @@
       <c r="X189" s="3"/>
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
-    </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA189" s="3"/>
+      <c r="AB189" s="3"/>
+      <c r="AC189" s="3"/>
+      <c r="AD189" s="3"/>
+      <c r="AE189" s="3"/>
+      <c r="AF189" s="3"/>
+    </row>
+    <row r="190" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -8144,12 +9511,6 @@
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
-      <c r="K190" s="3"/>
-      <c r="L190" s="3"/>
-      <c r="M190" s="3"/>
       <c r="N190" s="3"/>
       <c r="O190" s="3"/>
       <c r="P190" s="3"/>
@@ -8163,8 +9524,14 @@
       <c r="X190" s="3"/>
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
-    </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA190" s="3"/>
+      <c r="AB190" s="3"/>
+      <c r="AC190" s="3"/>
+      <c r="AD190" s="3"/>
+      <c r="AE190" s="3"/>
+      <c r="AF190" s="3"/>
+    </row>
+    <row r="191" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -8172,12 +9539,6 @@
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
-      <c r="K191" s="3"/>
-      <c r="L191" s="3"/>
-      <c r="M191" s="3"/>
       <c r="N191" s="3"/>
       <c r="O191" s="3"/>
       <c r="P191" s="3"/>
@@ -8191,8 +9552,14 @@
       <c r="X191" s="3"/>
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
-    </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA191" s="3"/>
+      <c r="AB191" s="3"/>
+      <c r="AC191" s="3"/>
+      <c r="AD191" s="3"/>
+      <c r="AE191" s="3"/>
+      <c r="AF191" s="3"/>
+    </row>
+    <row r="192" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -8200,12 +9567,6 @@
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
-      <c r="K192" s="3"/>
-      <c r="L192" s="3"/>
-      <c r="M192" s="3"/>
       <c r="N192" s="3"/>
       <c r="O192" s="3"/>
       <c r="P192" s="3"/>
@@ -8219,8 +9580,14 @@
       <c r="X192" s="3"/>
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
-    </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA192" s="3"/>
+      <c r="AB192" s="3"/>
+      <c r="AC192" s="3"/>
+      <c r="AD192" s="3"/>
+      <c r="AE192" s="3"/>
+      <c r="AF192" s="3"/>
+    </row>
+    <row r="193" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -8228,12 +9595,6 @@
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
-      <c r="K193" s="3"/>
-      <c r="L193" s="3"/>
-      <c r="M193" s="3"/>
       <c r="N193" s="3"/>
       <c r="O193" s="3"/>
       <c r="P193" s="3"/>
@@ -8247,8 +9608,14 @@
       <c r="X193" s="3"/>
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
-    </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA193" s="3"/>
+      <c r="AB193" s="3"/>
+      <c r="AC193" s="3"/>
+      <c r="AD193" s="3"/>
+      <c r="AE193" s="3"/>
+      <c r="AF193" s="3"/>
+    </row>
+    <row r="194" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -8256,12 +9623,6 @@
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
-      <c r="K194" s="3"/>
-      <c r="L194" s="3"/>
-      <c r="M194" s="3"/>
       <c r="N194" s="3"/>
       <c r="O194" s="3"/>
       <c r="P194" s="3"/>
@@ -8275,8 +9636,14 @@
       <c r="X194" s="3"/>
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
-    </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA194" s="3"/>
+      <c r="AB194" s="3"/>
+      <c r="AC194" s="3"/>
+      <c r="AD194" s="3"/>
+      <c r="AE194" s="3"/>
+      <c r="AF194" s="3"/>
+    </row>
+    <row r="195" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -8284,12 +9651,6 @@
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
-      <c r="J195" s="3"/>
-      <c r="K195" s="3"/>
-      <c r="L195" s="3"/>
-      <c r="M195" s="3"/>
       <c r="N195" s="3"/>
       <c r="O195" s="3"/>
       <c r="P195" s="3"/>
@@ -8303,8 +9664,14 @@
       <c r="X195" s="3"/>
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
-    </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA195" s="3"/>
+      <c r="AB195" s="3"/>
+      <c r="AC195" s="3"/>
+      <c r="AD195" s="3"/>
+      <c r="AE195" s="3"/>
+      <c r="AF195" s="3"/>
+    </row>
+    <row r="196" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -8312,12 +9679,6 @@
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
-      <c r="K196" s="3"/>
-      <c r="L196" s="3"/>
-      <c r="M196" s="3"/>
       <c r="N196" s="3"/>
       <c r="O196" s="3"/>
       <c r="P196" s="3"/>
@@ -8331,8 +9692,14 @@
       <c r="X196" s="3"/>
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
-    </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA196" s="3"/>
+      <c r="AB196" s="3"/>
+      <c r="AC196" s="3"/>
+      <c r="AD196" s="3"/>
+      <c r="AE196" s="3"/>
+      <c r="AF196" s="3"/>
+    </row>
+    <row r="197" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -8340,12 +9707,6 @@
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
-      <c r="K197" s="3"/>
-      <c r="L197" s="3"/>
-      <c r="M197" s="3"/>
       <c r="N197" s="3"/>
       <c r="O197" s="3"/>
       <c r="P197" s="3"/>
@@ -8359,8 +9720,14 @@
       <c r="X197" s="3"/>
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
-    </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA197" s="3"/>
+      <c r="AB197" s="3"/>
+      <c r="AC197" s="3"/>
+      <c r="AD197" s="3"/>
+      <c r="AE197" s="3"/>
+      <c r="AF197" s="3"/>
+    </row>
+    <row r="198" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -8368,12 +9735,6 @@
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-      <c r="J198" s="3"/>
-      <c r="K198" s="3"/>
-      <c r="L198" s="3"/>
-      <c r="M198" s="3"/>
       <c r="N198" s="3"/>
       <c r="O198" s="3"/>
       <c r="P198" s="3"/>
@@ -8387,8 +9748,14 @@
       <c r="X198" s="3"/>
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
-    </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA198" s="3"/>
+      <c r="AB198" s="3"/>
+      <c r="AC198" s="3"/>
+      <c r="AD198" s="3"/>
+      <c r="AE198" s="3"/>
+      <c r="AF198" s="3"/>
+    </row>
+    <row r="199" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -8396,12 +9763,6 @@
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
-      <c r="K199" s="3"/>
-      <c r="L199" s="3"/>
-      <c r="M199" s="3"/>
       <c r="N199" s="3"/>
       <c r="O199" s="3"/>
       <c r="P199" s="3"/>
@@ -8415,8 +9776,14 @@
       <c r="X199" s="3"/>
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
-    </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA199" s="3"/>
+      <c r="AB199" s="3"/>
+      <c r="AC199" s="3"/>
+      <c r="AD199" s="3"/>
+      <c r="AE199" s="3"/>
+      <c r="AF199" s="3"/>
+    </row>
+    <row r="200" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -8424,12 +9791,6 @@
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
-      <c r="K200" s="3"/>
-      <c r="L200" s="3"/>
-      <c r="M200" s="3"/>
       <c r="N200" s="3"/>
       <c r="O200" s="3"/>
       <c r="P200" s="3"/>
@@ -8443,8 +9804,14 @@
       <c r="X200" s="3"/>
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
-    </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA200" s="3"/>
+      <c r="AB200" s="3"/>
+      <c r="AC200" s="3"/>
+      <c r="AD200" s="3"/>
+      <c r="AE200" s="3"/>
+      <c r="AF200" s="3"/>
+    </row>
+    <row r="201" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -8452,12 +9819,6 @@
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
-      <c r="K201" s="3"/>
-      <c r="L201" s="3"/>
-      <c r="M201" s="3"/>
       <c r="N201" s="3"/>
       <c r="O201" s="3"/>
       <c r="P201" s="3"/>
@@ -8471,8 +9832,14 @@
       <c r="X201" s="3"/>
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
-    </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA201" s="3"/>
+      <c r="AB201" s="3"/>
+      <c r="AC201" s="3"/>
+      <c r="AD201" s="3"/>
+      <c r="AE201" s="3"/>
+      <c r="AF201" s="3"/>
+    </row>
+    <row r="202" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -8480,12 +9847,6 @@
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
-      <c r="K202" s="3"/>
-      <c r="L202" s="3"/>
-      <c r="M202" s="3"/>
       <c r="N202" s="3"/>
       <c r="O202" s="3"/>
       <c r="P202" s="3"/>
@@ -8499,8 +9860,14 @@
       <c r="X202" s="3"/>
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
-    </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA202" s="3"/>
+      <c r="AB202" s="3"/>
+      <c r="AC202" s="3"/>
+      <c r="AD202" s="3"/>
+      <c r="AE202" s="3"/>
+      <c r="AF202" s="3"/>
+    </row>
+    <row r="203" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -8508,12 +9875,6 @@
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
-      <c r="J203" s="3"/>
-      <c r="K203" s="3"/>
-      <c r="L203" s="3"/>
-      <c r="M203" s="3"/>
       <c r="N203" s="3"/>
       <c r="O203" s="3"/>
       <c r="P203" s="3"/>
@@ -8527,8 +9888,14 @@
       <c r="X203" s="3"/>
       <c r="Y203" s="3"/>
       <c r="Z203" s="3"/>
-    </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA203" s="3"/>
+      <c r="AB203" s="3"/>
+      <c r="AC203" s="3"/>
+      <c r="AD203" s="3"/>
+      <c r="AE203" s="3"/>
+      <c r="AF203" s="3"/>
+    </row>
+    <row r="204" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -8536,12 +9903,6 @@
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
-      <c r="I204" s="3"/>
-      <c r="J204" s="3"/>
-      <c r="K204" s="3"/>
-      <c r="L204" s="3"/>
-      <c r="M204" s="3"/>
       <c r="N204" s="3"/>
       <c r="O204" s="3"/>
       <c r="P204" s="3"/>
@@ -8555,8 +9916,14 @@
       <c r="X204" s="3"/>
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
-    </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA204" s="3"/>
+      <c r="AB204" s="3"/>
+      <c r="AC204" s="3"/>
+      <c r="AD204" s="3"/>
+      <c r="AE204" s="3"/>
+      <c r="AF204" s="3"/>
+    </row>
+    <row r="205" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -8564,12 +9931,6 @@
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
-      <c r="J205" s="3"/>
-      <c r="K205" s="3"/>
-      <c r="L205" s="3"/>
-      <c r="M205" s="3"/>
       <c r="N205" s="3"/>
       <c r="O205" s="3"/>
       <c r="P205" s="3"/>
@@ -8583,8 +9944,14 @@
       <c r="X205" s="3"/>
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
-    </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA205" s="3"/>
+      <c r="AB205" s="3"/>
+      <c r="AC205" s="3"/>
+      <c r="AD205" s="3"/>
+      <c r="AE205" s="3"/>
+      <c r="AF205" s="3"/>
+    </row>
+    <row r="206" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -8592,12 +9959,6 @@
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
-      <c r="J206" s="3"/>
-      <c r="K206" s="3"/>
-      <c r="L206" s="3"/>
-      <c r="M206" s="3"/>
       <c r="N206" s="3"/>
       <c r="O206" s="3"/>
       <c r="P206" s="3"/>
@@ -8611,8 +9972,14 @@
       <c r="X206" s="3"/>
       <c r="Y206" s="3"/>
       <c r="Z206" s="3"/>
-    </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA206" s="3"/>
+      <c r="AB206" s="3"/>
+      <c r="AC206" s="3"/>
+      <c r="AD206" s="3"/>
+      <c r="AE206" s="3"/>
+      <c r="AF206" s="3"/>
+    </row>
+    <row r="207" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -8620,12 +9987,6 @@
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
-      <c r="J207" s="3"/>
-      <c r="K207" s="3"/>
-      <c r="L207" s="3"/>
-      <c r="M207" s="3"/>
       <c r="N207" s="3"/>
       <c r="O207" s="3"/>
       <c r="P207" s="3"/>
@@ -8639,8 +10000,14 @@
       <c r="X207" s="3"/>
       <c r="Y207" s="3"/>
       <c r="Z207" s="3"/>
-    </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA207" s="3"/>
+      <c r="AB207" s="3"/>
+      <c r="AC207" s="3"/>
+      <c r="AD207" s="3"/>
+      <c r="AE207" s="3"/>
+      <c r="AF207" s="3"/>
+    </row>
+    <row r="208" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -8648,12 +10015,6 @@
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
-      <c r="I208" s="3"/>
-      <c r="J208" s="3"/>
-      <c r="K208" s="3"/>
-      <c r="L208" s="3"/>
-      <c r="M208" s="3"/>
       <c r="N208" s="3"/>
       <c r="O208" s="3"/>
       <c r="P208" s="3"/>
@@ -8667,8 +10028,14 @@
       <c r="X208" s="3"/>
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
-    </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA208" s="3"/>
+      <c r="AB208" s="3"/>
+      <c r="AC208" s="3"/>
+      <c r="AD208" s="3"/>
+      <c r="AE208" s="3"/>
+      <c r="AF208" s="3"/>
+    </row>
+    <row r="209" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -8676,12 +10043,6 @@
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
-      <c r="J209" s="3"/>
-      <c r="K209" s="3"/>
-      <c r="L209" s="3"/>
-      <c r="M209" s="3"/>
       <c r="N209" s="3"/>
       <c r="O209" s="3"/>
       <c r="P209" s="3"/>
@@ -8695,8 +10056,14 @@
       <c r="X209" s="3"/>
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
-    </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA209" s="3"/>
+      <c r="AB209" s="3"/>
+      <c r="AC209" s="3"/>
+      <c r="AD209" s="3"/>
+      <c r="AE209" s="3"/>
+      <c r="AF209" s="3"/>
+    </row>
+    <row r="210" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -8704,12 +10071,6 @@
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
-      <c r="J210" s="3"/>
-      <c r="K210" s="3"/>
-      <c r="L210" s="3"/>
-      <c r="M210" s="3"/>
       <c r="N210" s="3"/>
       <c r="O210" s="3"/>
       <c r="P210" s="3"/>
@@ -8723,8 +10084,14 @@
       <c r="X210" s="3"/>
       <c r="Y210" s="3"/>
       <c r="Z210" s="3"/>
-    </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA210" s="3"/>
+      <c r="AB210" s="3"/>
+      <c r="AC210" s="3"/>
+      <c r="AD210" s="3"/>
+      <c r="AE210" s="3"/>
+      <c r="AF210" s="3"/>
+    </row>
+    <row r="211" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -8732,12 +10099,6 @@
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
-      <c r="K211" s="3"/>
-      <c r="L211" s="3"/>
-      <c r="M211" s="3"/>
       <c r="N211" s="3"/>
       <c r="O211" s="3"/>
       <c r="P211" s="3"/>
@@ -8751,8 +10112,14 @@
       <c r="X211" s="3"/>
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
-    </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA211" s="3"/>
+      <c r="AB211" s="3"/>
+      <c r="AC211" s="3"/>
+      <c r="AD211" s="3"/>
+      <c r="AE211" s="3"/>
+      <c r="AF211" s="3"/>
+    </row>
+    <row r="212" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -8760,12 +10127,6 @@
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
-      <c r="I212" s="3"/>
-      <c r="J212" s="3"/>
-      <c r="K212" s="3"/>
-      <c r="L212" s="3"/>
-      <c r="M212" s="3"/>
       <c r="N212" s="3"/>
       <c r="O212" s="3"/>
       <c r="P212" s="3"/>
@@ -8779,8 +10140,14 @@
       <c r="X212" s="3"/>
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
-    </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA212" s="3"/>
+      <c r="AB212" s="3"/>
+      <c r="AC212" s="3"/>
+      <c r="AD212" s="3"/>
+      <c r="AE212" s="3"/>
+      <c r="AF212" s="3"/>
+    </row>
+    <row r="213" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -8788,12 +10155,6 @@
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
-      <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
-      <c r="K213" s="3"/>
-      <c r="L213" s="3"/>
-      <c r="M213" s="3"/>
       <c r="N213" s="3"/>
       <c r="O213" s="3"/>
       <c r="P213" s="3"/>
@@ -8807,8 +10168,14 @@
       <c r="X213" s="3"/>
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
-    </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA213" s="3"/>
+      <c r="AB213" s="3"/>
+      <c r="AC213" s="3"/>
+      <c r="AD213" s="3"/>
+      <c r="AE213" s="3"/>
+      <c r="AF213" s="3"/>
+    </row>
+    <row r="214" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -8816,12 +10183,6 @@
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
-      <c r="I214" s="3"/>
-      <c r="J214" s="3"/>
-      <c r="K214" s="3"/>
-      <c r="L214" s="3"/>
-      <c r="M214" s="3"/>
       <c r="N214" s="3"/>
       <c r="O214" s="3"/>
       <c r="P214" s="3"/>
@@ -8835,8 +10196,14 @@
       <c r="X214" s="3"/>
       <c r="Y214" s="3"/>
       <c r="Z214" s="3"/>
-    </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA214" s="3"/>
+      <c r="AB214" s="3"/>
+      <c r="AC214" s="3"/>
+      <c r="AD214" s="3"/>
+      <c r="AE214" s="3"/>
+      <c r="AF214" s="3"/>
+    </row>
+    <row r="215" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -8844,12 +10211,6 @@
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
-      <c r="I215" s="3"/>
-      <c r="J215" s="3"/>
-      <c r="K215" s="3"/>
-      <c r="L215" s="3"/>
-      <c r="M215" s="3"/>
       <c r="N215" s="3"/>
       <c r="O215" s="3"/>
       <c r="P215" s="3"/>
@@ -8863,8 +10224,14 @@
       <c r="X215" s="3"/>
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
-    </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA215" s="3"/>
+      <c r="AB215" s="3"/>
+      <c r="AC215" s="3"/>
+      <c r="AD215" s="3"/>
+      <c r="AE215" s="3"/>
+      <c r="AF215" s="3"/>
+    </row>
+    <row r="216" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -8872,12 +10239,6 @@
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
-      <c r="H216" s="3"/>
-      <c r="I216" s="3"/>
-      <c r="J216" s="3"/>
-      <c r="K216" s="3"/>
-      <c r="L216" s="3"/>
-      <c r="M216" s="3"/>
       <c r="N216" s="3"/>
       <c r="O216" s="3"/>
       <c r="P216" s="3"/>
@@ -8891,8 +10252,14 @@
       <c r="X216" s="3"/>
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
-    </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA216" s="3"/>
+      <c r="AB216" s="3"/>
+      <c r="AC216" s="3"/>
+      <c r="AD216" s="3"/>
+      <c r="AE216" s="3"/>
+      <c r="AF216" s="3"/>
+    </row>
+    <row r="217" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -8900,12 +10267,6 @@
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
-      <c r="I217" s="3"/>
-      <c r="J217" s="3"/>
-      <c r="K217" s="3"/>
-      <c r="L217" s="3"/>
-      <c r="M217" s="3"/>
       <c r="N217" s="3"/>
       <c r="O217" s="3"/>
       <c r="P217" s="3"/>
@@ -8919,8 +10280,14 @@
       <c r="X217" s="3"/>
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
-    </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA217" s="3"/>
+      <c r="AB217" s="3"/>
+      <c r="AC217" s="3"/>
+      <c r="AD217" s="3"/>
+      <c r="AE217" s="3"/>
+      <c r="AF217" s="3"/>
+    </row>
+    <row r="218" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -8928,12 +10295,6 @@
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
-      <c r="J218" s="3"/>
-      <c r="K218" s="3"/>
-      <c r="L218" s="3"/>
-      <c r="M218" s="3"/>
       <c r="N218" s="3"/>
       <c r="O218" s="3"/>
       <c r="P218" s="3"/>
@@ -8947,8 +10308,14 @@
       <c r="X218" s="3"/>
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
-    </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA218" s="3"/>
+      <c r="AB218" s="3"/>
+      <c r="AC218" s="3"/>
+      <c r="AD218" s="3"/>
+      <c r="AE218" s="3"/>
+      <c r="AF218" s="3"/>
+    </row>
+    <row r="219" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -8956,12 +10323,6 @@
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
-      <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
-      <c r="K219" s="3"/>
-      <c r="L219" s="3"/>
-      <c r="M219" s="3"/>
       <c r="N219" s="3"/>
       <c r="O219" s="3"/>
       <c r="P219" s="3"/>
@@ -8975,8 +10336,14 @@
       <c r="X219" s="3"/>
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
-    </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA219" s="3"/>
+      <c r="AB219" s="3"/>
+      <c r="AC219" s="3"/>
+      <c r="AD219" s="3"/>
+      <c r="AE219" s="3"/>
+      <c r="AF219" s="3"/>
+    </row>
+    <row r="220" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -8984,12 +10351,6 @@
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
-      <c r="I220" s="3"/>
-      <c r="J220" s="3"/>
-      <c r="K220" s="3"/>
-      <c r="L220" s="3"/>
-      <c r="M220" s="3"/>
       <c r="N220" s="3"/>
       <c r="O220" s="3"/>
       <c r="P220" s="3"/>
@@ -9003,8 +10364,14 @@
       <c r="X220" s="3"/>
       <c r="Y220" s="3"/>
       <c r="Z220" s="3"/>
-    </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA220" s="3"/>
+      <c r="AB220" s="3"/>
+      <c r="AC220" s="3"/>
+      <c r="AD220" s="3"/>
+      <c r="AE220" s="3"/>
+      <c r="AF220" s="3"/>
+    </row>
+    <row r="221" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -9012,12 +10379,6 @@
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
-      <c r="K221" s="3"/>
-      <c r="L221" s="3"/>
-      <c r="M221" s="3"/>
       <c r="N221" s="3"/>
       <c r="O221" s="3"/>
       <c r="P221" s="3"/>
@@ -9031,8 +10392,14 @@
       <c r="X221" s="3"/>
       <c r="Y221" s="3"/>
       <c r="Z221" s="3"/>
-    </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA221" s="3"/>
+      <c r="AB221" s="3"/>
+      <c r="AC221" s="3"/>
+      <c r="AD221" s="3"/>
+      <c r="AE221" s="3"/>
+      <c r="AF221" s="3"/>
+    </row>
+    <row r="222" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -9040,12 +10407,6 @@
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
-      <c r="K222" s="3"/>
-      <c r="L222" s="3"/>
-      <c r="M222" s="3"/>
       <c r="N222" s="3"/>
       <c r="O222" s="3"/>
       <c r="P222" s="3"/>
@@ -9059,8 +10420,14 @@
       <c r="X222" s="3"/>
       <c r="Y222" s="3"/>
       <c r="Z222" s="3"/>
-    </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA222" s="3"/>
+      <c r="AB222" s="3"/>
+      <c r="AC222" s="3"/>
+      <c r="AD222" s="3"/>
+      <c r="AE222" s="3"/>
+      <c r="AF222" s="3"/>
+    </row>
+    <row r="223" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -9068,12 +10435,6 @@
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
-      <c r="I223" s="3"/>
-      <c r="J223" s="3"/>
-      <c r="K223" s="3"/>
-      <c r="L223" s="3"/>
-      <c r="M223" s="3"/>
       <c r="N223" s="3"/>
       <c r="O223" s="3"/>
       <c r="P223" s="3"/>
@@ -9087,8 +10448,14 @@
       <c r="X223" s="3"/>
       <c r="Y223" s="3"/>
       <c r="Z223" s="3"/>
-    </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA223" s="3"/>
+      <c r="AB223" s="3"/>
+      <c r="AC223" s="3"/>
+      <c r="AD223" s="3"/>
+      <c r="AE223" s="3"/>
+      <c r="AF223" s="3"/>
+    </row>
+    <row r="224" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -9096,12 +10463,6 @@
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
-      <c r="H224" s="3"/>
-      <c r="I224" s="3"/>
-      <c r="J224" s="3"/>
-      <c r="K224" s="3"/>
-      <c r="L224" s="3"/>
-      <c r="M224" s="3"/>
       <c r="N224" s="3"/>
       <c r="O224" s="3"/>
       <c r="P224" s="3"/>
@@ -9115,8 +10476,14 @@
       <c r="X224" s="3"/>
       <c r="Y224" s="3"/>
       <c r="Z224" s="3"/>
-    </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA224" s="3"/>
+      <c r="AB224" s="3"/>
+      <c r="AC224" s="3"/>
+      <c r="AD224" s="3"/>
+      <c r="AE224" s="3"/>
+      <c r="AF224" s="3"/>
+    </row>
+    <row r="225" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -9124,12 +10491,6 @@
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
-      <c r="H225" s="3"/>
-      <c r="I225" s="3"/>
-      <c r="J225" s="3"/>
-      <c r="K225" s="3"/>
-      <c r="L225" s="3"/>
-      <c r="M225" s="3"/>
       <c r="N225" s="3"/>
       <c r="O225" s="3"/>
       <c r="P225" s="3"/>
@@ -9143,8 +10504,14 @@
       <c r="X225" s="3"/>
       <c r="Y225" s="3"/>
       <c r="Z225" s="3"/>
-    </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA225" s="3"/>
+      <c r="AB225" s="3"/>
+      <c r="AC225" s="3"/>
+      <c r="AD225" s="3"/>
+      <c r="AE225" s="3"/>
+      <c r="AF225" s="3"/>
+    </row>
+    <row r="226" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -9152,12 +10519,6 @@
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
-      <c r="I226" s="3"/>
-      <c r="J226" s="3"/>
-      <c r="K226" s="3"/>
-      <c r="L226" s="3"/>
-      <c r="M226" s="3"/>
       <c r="N226" s="3"/>
       <c r="O226" s="3"/>
       <c r="P226" s="3"/>
@@ -9171,8 +10532,14 @@
       <c r="X226" s="3"/>
       <c r="Y226" s="3"/>
       <c r="Z226" s="3"/>
-    </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA226" s="3"/>
+      <c r="AB226" s="3"/>
+      <c r="AC226" s="3"/>
+      <c r="AD226" s="3"/>
+      <c r="AE226" s="3"/>
+      <c r="AF226" s="3"/>
+    </row>
+    <row r="227" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -9180,12 +10547,6 @@
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
-      <c r="I227" s="3"/>
-      <c r="J227" s="3"/>
-      <c r="K227" s="3"/>
-      <c r="L227" s="3"/>
-      <c r="M227" s="3"/>
       <c r="N227" s="3"/>
       <c r="O227" s="3"/>
       <c r="P227" s="3"/>
@@ -9199,8 +10560,14 @@
       <c r="X227" s="3"/>
       <c r="Y227" s="3"/>
       <c r="Z227" s="3"/>
-    </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA227" s="3"/>
+      <c r="AB227" s="3"/>
+      <c r="AC227" s="3"/>
+      <c r="AD227" s="3"/>
+      <c r="AE227" s="3"/>
+      <c r="AF227" s="3"/>
+    </row>
+    <row r="228" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -9208,12 +10575,6 @@
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
-      <c r="I228" s="3"/>
-      <c r="J228" s="3"/>
-      <c r="K228" s="3"/>
-      <c r="L228" s="3"/>
-      <c r="M228" s="3"/>
       <c r="N228" s="3"/>
       <c r="O228" s="3"/>
       <c r="P228" s="3"/>
@@ -9227,8 +10588,14 @@
       <c r="X228" s="3"/>
       <c r="Y228" s="3"/>
       <c r="Z228" s="3"/>
-    </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA228" s="3"/>
+      <c r="AB228" s="3"/>
+      <c r="AC228" s="3"/>
+      <c r="AD228" s="3"/>
+      <c r="AE228" s="3"/>
+      <c r="AF228" s="3"/>
+    </row>
+    <row r="229" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -9236,12 +10603,6 @@
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
-      <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
-      <c r="K229" s="3"/>
-      <c r="L229" s="3"/>
-      <c r="M229" s="3"/>
       <c r="N229" s="3"/>
       <c r="O229" s="3"/>
       <c r="P229" s="3"/>
@@ -9255,8 +10616,14 @@
       <c r="X229" s="3"/>
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
-    </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA229" s="3"/>
+      <c r="AB229" s="3"/>
+      <c r="AC229" s="3"/>
+      <c r="AD229" s="3"/>
+      <c r="AE229" s="3"/>
+      <c r="AF229" s="3"/>
+    </row>
+    <row r="230" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -9264,12 +10631,6 @@
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
-      <c r="I230" s="3"/>
-      <c r="J230" s="3"/>
-      <c r="K230" s="3"/>
-      <c r="L230" s="3"/>
-      <c r="M230" s="3"/>
       <c r="N230" s="3"/>
       <c r="O230" s="3"/>
       <c r="P230" s="3"/>
@@ -9283,8 +10644,14 @@
       <c r="X230" s="3"/>
       <c r="Y230" s="3"/>
       <c r="Z230" s="3"/>
-    </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA230" s="3"/>
+      <c r="AB230" s="3"/>
+      <c r="AC230" s="3"/>
+      <c r="AD230" s="3"/>
+      <c r="AE230" s="3"/>
+      <c r="AF230" s="3"/>
+    </row>
+    <row r="231" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -9292,12 +10659,6 @@
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
-      <c r="H231" s="3"/>
-      <c r="I231" s="3"/>
-      <c r="J231" s="3"/>
-      <c r="K231" s="3"/>
-      <c r="L231" s="3"/>
-      <c r="M231" s="3"/>
       <c r="N231" s="3"/>
       <c r="O231" s="3"/>
       <c r="P231" s="3"/>
@@ -9311,8 +10672,14 @@
       <c r="X231" s="3"/>
       <c r="Y231" s="3"/>
       <c r="Z231" s="3"/>
-    </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA231" s="3"/>
+      <c r="AB231" s="3"/>
+      <c r="AC231" s="3"/>
+      <c r="AD231" s="3"/>
+      <c r="AE231" s="3"/>
+      <c r="AF231" s="3"/>
+    </row>
+    <row r="232" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -9320,12 +10687,6 @@
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
-      <c r="H232" s="3"/>
-      <c r="I232" s="3"/>
-      <c r="J232" s="3"/>
-      <c r="K232" s="3"/>
-      <c r="L232" s="3"/>
-      <c r="M232" s="3"/>
       <c r="N232" s="3"/>
       <c r="O232" s="3"/>
       <c r="P232" s="3"/>
@@ -9339,8 +10700,14 @@
       <c r="X232" s="3"/>
       <c r="Y232" s="3"/>
       <c r="Z232" s="3"/>
-    </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA232" s="3"/>
+      <c r="AB232" s="3"/>
+      <c r="AC232" s="3"/>
+      <c r="AD232" s="3"/>
+      <c r="AE232" s="3"/>
+      <c r="AF232" s="3"/>
+    </row>
+    <row r="233" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -9348,12 +10715,6 @@
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
-      <c r="H233" s="3"/>
-      <c r="I233" s="3"/>
-      <c r="J233" s="3"/>
-      <c r="K233" s="3"/>
-      <c r="L233" s="3"/>
-      <c r="M233" s="3"/>
       <c r="N233" s="3"/>
       <c r="O233" s="3"/>
       <c r="P233" s="3"/>
@@ -9367,8 +10728,14 @@
       <c r="X233" s="3"/>
       <c r="Y233" s="3"/>
       <c r="Z233" s="3"/>
-    </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA233" s="3"/>
+      <c r="AB233" s="3"/>
+      <c r="AC233" s="3"/>
+      <c r="AD233" s="3"/>
+      <c r="AE233" s="3"/>
+      <c r="AF233" s="3"/>
+    </row>
+    <row r="234" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -9376,12 +10743,6 @@
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
-      <c r="I234" s="3"/>
-      <c r="J234" s="3"/>
-      <c r="K234" s="3"/>
-      <c r="L234" s="3"/>
-      <c r="M234" s="3"/>
       <c r="N234" s="3"/>
       <c r="O234" s="3"/>
       <c r="P234" s="3"/>
@@ -9395,8 +10756,14 @@
       <c r="X234" s="3"/>
       <c r="Y234" s="3"/>
       <c r="Z234" s="3"/>
-    </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA234" s="3"/>
+      <c r="AB234" s="3"/>
+      <c r="AC234" s="3"/>
+      <c r="AD234" s="3"/>
+      <c r="AE234" s="3"/>
+      <c r="AF234" s="3"/>
+    </row>
+    <row r="235" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -9404,12 +10771,6 @@
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
-      <c r="I235" s="3"/>
-      <c r="J235" s="3"/>
-      <c r="K235" s="3"/>
-      <c r="L235" s="3"/>
-      <c r="M235" s="3"/>
       <c r="N235" s="3"/>
       <c r="O235" s="3"/>
       <c r="P235" s="3"/>
@@ -9423,8 +10784,14 @@
       <c r="X235" s="3"/>
       <c r="Y235" s="3"/>
       <c r="Z235" s="3"/>
-    </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA235" s="3"/>
+      <c r="AB235" s="3"/>
+      <c r="AC235" s="3"/>
+      <c r="AD235" s="3"/>
+      <c r="AE235" s="3"/>
+      <c r="AF235" s="3"/>
+    </row>
+    <row r="236" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -9432,12 +10799,6 @@
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
-      <c r="H236" s="3"/>
-      <c r="I236" s="3"/>
-      <c r="J236" s="3"/>
-      <c r="K236" s="3"/>
-      <c r="L236" s="3"/>
-      <c r="M236" s="3"/>
       <c r="N236" s="3"/>
       <c r="O236" s="3"/>
       <c r="P236" s="3"/>
@@ -9451,8 +10812,14 @@
       <c r="X236" s="3"/>
       <c r="Y236" s="3"/>
       <c r="Z236" s="3"/>
-    </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA236" s="3"/>
+      <c r="AB236" s="3"/>
+      <c r="AC236" s="3"/>
+      <c r="AD236" s="3"/>
+      <c r="AE236" s="3"/>
+      <c r="AF236" s="3"/>
+    </row>
+    <row r="237" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -9460,12 +10827,6 @@
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
-      <c r="H237" s="3"/>
-      <c r="I237" s="3"/>
-      <c r="J237" s="3"/>
-      <c r="K237" s="3"/>
-      <c r="L237" s="3"/>
-      <c r="M237" s="3"/>
       <c r="N237" s="3"/>
       <c r="O237" s="3"/>
       <c r="P237" s="3"/>
@@ -9479,8 +10840,14 @@
       <c r="X237" s="3"/>
       <c r="Y237" s="3"/>
       <c r="Z237" s="3"/>
-    </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA237" s="3"/>
+      <c r="AB237" s="3"/>
+      <c r="AC237" s="3"/>
+      <c r="AD237" s="3"/>
+      <c r="AE237" s="3"/>
+      <c r="AF237" s="3"/>
+    </row>
+    <row r="238" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -9488,12 +10855,6 @@
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
-      <c r="I238" s="3"/>
-      <c r="J238" s="3"/>
-      <c r="K238" s="3"/>
-      <c r="L238" s="3"/>
-      <c r="M238" s="3"/>
       <c r="N238" s="3"/>
       <c r="O238" s="3"/>
       <c r="P238" s="3"/>
@@ -9507,8 +10868,14 @@
       <c r="X238" s="3"/>
       <c r="Y238" s="3"/>
       <c r="Z238" s="3"/>
-    </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA238" s="3"/>
+      <c r="AB238" s="3"/>
+      <c r="AC238" s="3"/>
+      <c r="AD238" s="3"/>
+      <c r="AE238" s="3"/>
+      <c r="AF238" s="3"/>
+    </row>
+    <row r="239" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -9516,12 +10883,6 @@
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
-      <c r="I239" s="3"/>
-      <c r="J239" s="3"/>
-      <c r="K239" s="3"/>
-      <c r="L239" s="3"/>
-      <c r="M239" s="3"/>
       <c r="N239" s="3"/>
       <c r="O239" s="3"/>
       <c r="P239" s="3"/>
@@ -9535,8 +10896,14 @@
       <c r="X239" s="3"/>
       <c r="Y239" s="3"/>
       <c r="Z239" s="3"/>
-    </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA239" s="3"/>
+      <c r="AB239" s="3"/>
+      <c r="AC239" s="3"/>
+      <c r="AD239" s="3"/>
+      <c r="AE239" s="3"/>
+      <c r="AF239" s="3"/>
+    </row>
+    <row r="240" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -9544,12 +10911,6 @@
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
-      <c r="H240" s="3"/>
-      <c r="I240" s="3"/>
-      <c r="J240" s="3"/>
-      <c r="K240" s="3"/>
-      <c r="L240" s="3"/>
-      <c r="M240" s="3"/>
       <c r="N240" s="3"/>
       <c r="O240" s="3"/>
       <c r="P240" s="3"/>
@@ -9563,8 +10924,14 @@
       <c r="X240" s="3"/>
       <c r="Y240" s="3"/>
       <c r="Z240" s="3"/>
-    </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA240" s="3"/>
+      <c r="AB240" s="3"/>
+      <c r="AC240" s="3"/>
+      <c r="AD240" s="3"/>
+      <c r="AE240" s="3"/>
+      <c r="AF240" s="3"/>
+    </row>
+    <row r="241" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -9572,12 +10939,6 @@
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
-      <c r="H241" s="3"/>
-      <c r="I241" s="3"/>
-      <c r="J241" s="3"/>
-      <c r="K241" s="3"/>
-      <c r="L241" s="3"/>
-      <c r="M241" s="3"/>
       <c r="N241" s="3"/>
       <c r="O241" s="3"/>
       <c r="P241" s="3"/>
@@ -9591,8 +10952,14 @@
       <c r="X241" s="3"/>
       <c r="Y241" s="3"/>
       <c r="Z241" s="3"/>
-    </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA241" s="3"/>
+      <c r="AB241" s="3"/>
+      <c r="AC241" s="3"/>
+      <c r="AD241" s="3"/>
+      <c r="AE241" s="3"/>
+      <c r="AF241" s="3"/>
+    </row>
+    <row r="242" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -9600,12 +10967,6 @@
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
-      <c r="I242" s="3"/>
-      <c r="J242" s="3"/>
-      <c r="K242" s="3"/>
-      <c r="L242" s="3"/>
-      <c r="M242" s="3"/>
       <c r="N242" s="3"/>
       <c r="O242" s="3"/>
       <c r="P242" s="3"/>
@@ -9619,8 +10980,14 @@
       <c r="X242" s="3"/>
       <c r="Y242" s="3"/>
       <c r="Z242" s="3"/>
-    </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA242" s="3"/>
+      <c r="AB242" s="3"/>
+      <c r="AC242" s="3"/>
+      <c r="AD242" s="3"/>
+      <c r="AE242" s="3"/>
+      <c r="AF242" s="3"/>
+    </row>
+    <row r="243" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -9628,12 +10995,6 @@
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
-      <c r="I243" s="3"/>
-      <c r="J243" s="3"/>
-      <c r="K243" s="3"/>
-      <c r="L243" s="3"/>
-      <c r="M243" s="3"/>
       <c r="N243" s="3"/>
       <c r="O243" s="3"/>
       <c r="P243" s="3"/>
@@ -9647,8 +11008,14 @@
       <c r="X243" s="3"/>
       <c r="Y243" s="3"/>
       <c r="Z243" s="3"/>
-    </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA243" s="3"/>
+      <c r="AB243" s="3"/>
+      <c r="AC243" s="3"/>
+      <c r="AD243" s="3"/>
+      <c r="AE243" s="3"/>
+      <c r="AF243" s="3"/>
+    </row>
+    <row r="244" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -9656,12 +11023,6 @@
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
-      <c r="H244" s="3"/>
-      <c r="I244" s="3"/>
-      <c r="J244" s="3"/>
-      <c r="K244" s="3"/>
-      <c r="L244" s="3"/>
-      <c r="M244" s="3"/>
       <c r="N244" s="3"/>
       <c r="O244" s="3"/>
       <c r="P244" s="3"/>
@@ -9675,8 +11036,14 @@
       <c r="X244" s="3"/>
       <c r="Y244" s="3"/>
       <c r="Z244" s="3"/>
-    </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA244" s="3"/>
+      <c r="AB244" s="3"/>
+      <c r="AC244" s="3"/>
+      <c r="AD244" s="3"/>
+      <c r="AE244" s="3"/>
+      <c r="AF244" s="3"/>
+    </row>
+    <row r="245" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -9684,12 +11051,6 @@
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
-      <c r="H245" s="3"/>
-      <c r="I245" s="3"/>
-      <c r="J245" s="3"/>
-      <c r="K245" s="3"/>
-      <c r="L245" s="3"/>
-      <c r="M245" s="3"/>
       <c r="N245" s="3"/>
       <c r="O245" s="3"/>
       <c r="P245" s="3"/>
@@ -9703,8 +11064,14 @@
       <c r="X245" s="3"/>
       <c r="Y245" s="3"/>
       <c r="Z245" s="3"/>
-    </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA245" s="3"/>
+      <c r="AB245" s="3"/>
+      <c r="AC245" s="3"/>
+      <c r="AD245" s="3"/>
+      <c r="AE245" s="3"/>
+      <c r="AF245" s="3"/>
+    </row>
+    <row r="246" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -9712,12 +11079,6 @@
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
-      <c r="H246" s="3"/>
-      <c r="I246" s="3"/>
-      <c r="J246" s="3"/>
-      <c r="K246" s="3"/>
-      <c r="L246" s="3"/>
-      <c r="M246" s="3"/>
       <c r="N246" s="3"/>
       <c r="O246" s="3"/>
       <c r="P246" s="3"/>
@@ -9731,8 +11092,14 @@
       <c r="X246" s="3"/>
       <c r="Y246" s="3"/>
       <c r="Z246" s="3"/>
-    </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA246" s="3"/>
+      <c r="AB246" s="3"/>
+      <c r="AC246" s="3"/>
+      <c r="AD246" s="3"/>
+      <c r="AE246" s="3"/>
+      <c r="AF246" s="3"/>
+    </row>
+    <row r="247" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -9740,12 +11107,6 @@
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
-      <c r="H247" s="3"/>
-      <c r="I247" s="3"/>
-      <c r="J247" s="3"/>
-      <c r="K247" s="3"/>
-      <c r="L247" s="3"/>
-      <c r="M247" s="3"/>
       <c r="N247" s="3"/>
       <c r="O247" s="3"/>
       <c r="P247" s="3"/>
@@ -9759,8 +11120,14 @@
       <c r="X247" s="3"/>
       <c r="Y247" s="3"/>
       <c r="Z247" s="3"/>
-    </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA247" s="3"/>
+      <c r="AB247" s="3"/>
+      <c r="AC247" s="3"/>
+      <c r="AD247" s="3"/>
+      <c r="AE247" s="3"/>
+      <c r="AF247" s="3"/>
+    </row>
+    <row r="248" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -9768,12 +11135,6 @@
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
-      <c r="H248" s="3"/>
-      <c r="I248" s="3"/>
-      <c r="J248" s="3"/>
-      <c r="K248" s="3"/>
-      <c r="L248" s="3"/>
-      <c r="M248" s="3"/>
       <c r="N248" s="3"/>
       <c r="O248" s="3"/>
       <c r="P248" s="3"/>
@@ -9787,8 +11148,14 @@
       <c r="X248" s="3"/>
       <c r="Y248" s="3"/>
       <c r="Z248" s="3"/>
-    </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA248" s="3"/>
+      <c r="AB248" s="3"/>
+      <c r="AC248" s="3"/>
+      <c r="AD248" s="3"/>
+      <c r="AE248" s="3"/>
+      <c r="AF248" s="3"/>
+    </row>
+    <row r="249" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -9796,12 +11163,6 @@
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
-      <c r="H249" s="3"/>
-      <c r="I249" s="3"/>
-      <c r="J249" s="3"/>
-      <c r="K249" s="3"/>
-      <c r="L249" s="3"/>
-      <c r="M249" s="3"/>
       <c r="N249" s="3"/>
       <c r="O249" s="3"/>
       <c r="P249" s="3"/>
@@ -9815,8 +11176,14 @@
       <c r="X249" s="3"/>
       <c r="Y249" s="3"/>
       <c r="Z249" s="3"/>
-    </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA249" s="3"/>
+      <c r="AB249" s="3"/>
+      <c r="AC249" s="3"/>
+      <c r="AD249" s="3"/>
+      <c r="AE249" s="3"/>
+      <c r="AF249" s="3"/>
+    </row>
+    <row r="250" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -9824,12 +11191,6 @@
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
-      <c r="H250" s="3"/>
-      <c r="I250" s="3"/>
-      <c r="J250" s="3"/>
-      <c r="K250" s="3"/>
-      <c r="L250" s="3"/>
-      <c r="M250" s="3"/>
       <c r="N250" s="3"/>
       <c r="O250" s="3"/>
       <c r="P250" s="3"/>
@@ -9843,8 +11204,14 @@
       <c r="X250" s="3"/>
       <c r="Y250" s="3"/>
       <c r="Z250" s="3"/>
-    </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA250" s="3"/>
+      <c r="AB250" s="3"/>
+      <c r="AC250" s="3"/>
+      <c r="AD250" s="3"/>
+      <c r="AE250" s="3"/>
+      <c r="AF250" s="3"/>
+    </row>
+    <row r="251" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -9852,12 +11219,6 @@
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
-      <c r="H251" s="3"/>
-      <c r="I251" s="3"/>
-      <c r="J251" s="3"/>
-      <c r="K251" s="3"/>
-      <c r="L251" s="3"/>
-      <c r="M251" s="3"/>
       <c r="N251" s="3"/>
       <c r="O251" s="3"/>
       <c r="P251" s="3"/>
@@ -9871,8 +11232,14 @@
       <c r="X251" s="3"/>
       <c r="Y251" s="3"/>
       <c r="Z251" s="3"/>
-    </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA251" s="3"/>
+      <c r="AB251" s="3"/>
+      <c r="AC251" s="3"/>
+      <c r="AD251" s="3"/>
+      <c r="AE251" s="3"/>
+      <c r="AF251" s="3"/>
+    </row>
+    <row r="252" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -9880,12 +11247,6 @@
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
-      <c r="H252" s="3"/>
-      <c r="I252" s="3"/>
-      <c r="J252" s="3"/>
-      <c r="K252" s="3"/>
-      <c r="L252" s="3"/>
-      <c r="M252" s="3"/>
       <c r="N252" s="3"/>
       <c r="O252" s="3"/>
       <c r="P252" s="3"/>
@@ -9899,8 +11260,14 @@
       <c r="X252" s="3"/>
       <c r="Y252" s="3"/>
       <c r="Z252" s="3"/>
-    </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA252" s="3"/>
+      <c r="AB252" s="3"/>
+      <c r="AC252" s="3"/>
+      <c r="AD252" s="3"/>
+      <c r="AE252" s="3"/>
+      <c r="AF252" s="3"/>
+    </row>
+    <row r="253" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -9908,12 +11275,6 @@
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
-      <c r="H253" s="3"/>
-      <c r="I253" s="3"/>
-      <c r="J253" s="3"/>
-      <c r="K253" s="3"/>
-      <c r="L253" s="3"/>
-      <c r="M253" s="3"/>
       <c r="N253" s="3"/>
       <c r="O253" s="3"/>
       <c r="P253" s="3"/>
@@ -9927,8 +11288,14 @@
       <c r="X253" s="3"/>
       <c r="Y253" s="3"/>
       <c r="Z253" s="3"/>
-    </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA253" s="3"/>
+      <c r="AB253" s="3"/>
+      <c r="AC253" s="3"/>
+      <c r="AD253" s="3"/>
+      <c r="AE253" s="3"/>
+      <c r="AF253" s="3"/>
+    </row>
+    <row r="254" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -9936,12 +11303,6 @@
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
-      <c r="H254" s="3"/>
-      <c r="I254" s="3"/>
-      <c r="J254" s="3"/>
-      <c r="K254" s="3"/>
-      <c r="L254" s="3"/>
-      <c r="M254" s="3"/>
       <c r="N254" s="3"/>
       <c r="O254" s="3"/>
       <c r="P254" s="3"/>
@@ -9955,8 +11316,14 @@
       <c r="X254" s="3"/>
       <c r="Y254" s="3"/>
       <c r="Z254" s="3"/>
-    </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA254" s="3"/>
+      <c r="AB254" s="3"/>
+      <c r="AC254" s="3"/>
+      <c r="AD254" s="3"/>
+      <c r="AE254" s="3"/>
+      <c r="AF254" s="3"/>
+    </row>
+    <row r="255" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -9964,12 +11331,6 @@
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
-      <c r="H255" s="3"/>
-      <c r="I255" s="3"/>
-      <c r="J255" s="3"/>
-      <c r="K255" s="3"/>
-      <c r="L255" s="3"/>
-      <c r="M255" s="3"/>
       <c r="N255" s="3"/>
       <c r="O255" s="3"/>
       <c r="P255" s="3"/>
@@ -9983,8 +11344,14 @@
       <c r="X255" s="3"/>
       <c r="Y255" s="3"/>
       <c r="Z255" s="3"/>
-    </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA255" s="3"/>
+      <c r="AB255" s="3"/>
+      <c r="AC255" s="3"/>
+      <c r="AD255" s="3"/>
+      <c r="AE255" s="3"/>
+      <c r="AF255" s="3"/>
+    </row>
+    <row r="256" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -9992,12 +11359,6 @@
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
-      <c r="H256" s="3"/>
-      <c r="I256" s="3"/>
-      <c r="J256" s="3"/>
-      <c r="K256" s="3"/>
-      <c r="L256" s="3"/>
-      <c r="M256" s="3"/>
       <c r="N256" s="3"/>
       <c r="O256" s="3"/>
       <c r="P256" s="3"/>
@@ -10011,8 +11372,14 @@
       <c r="X256" s="3"/>
       <c r="Y256" s="3"/>
       <c r="Z256" s="3"/>
-    </row>
-    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA256" s="3"/>
+      <c r="AB256" s="3"/>
+      <c r="AC256" s="3"/>
+      <c r="AD256" s="3"/>
+      <c r="AE256" s="3"/>
+      <c r="AF256" s="3"/>
+    </row>
+    <row r="257" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -10020,12 +11387,6 @@
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
-      <c r="H257" s="3"/>
-      <c r="I257" s="3"/>
-      <c r="J257" s="3"/>
-      <c r="K257" s="3"/>
-      <c r="L257" s="3"/>
-      <c r="M257" s="3"/>
       <c r="N257" s="3"/>
       <c r="O257" s="3"/>
       <c r="P257" s="3"/>
@@ -10039,8 +11400,14 @@
       <c r="X257" s="3"/>
       <c r="Y257" s="3"/>
       <c r="Z257" s="3"/>
-    </row>
-    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA257" s="3"/>
+      <c r="AB257" s="3"/>
+      <c r="AC257" s="3"/>
+      <c r="AD257" s="3"/>
+      <c r="AE257" s="3"/>
+      <c r="AF257" s="3"/>
+    </row>
+    <row r="258" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -10048,12 +11415,6 @@
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
-      <c r="H258" s="3"/>
-      <c r="I258" s="3"/>
-      <c r="J258" s="3"/>
-      <c r="K258" s="3"/>
-      <c r="L258" s="3"/>
-      <c r="M258" s="3"/>
       <c r="N258" s="3"/>
       <c r="O258" s="3"/>
       <c r="P258" s="3"/>
@@ -10067,8 +11428,14 @@
       <c r="X258" s="3"/>
       <c r="Y258" s="3"/>
       <c r="Z258" s="3"/>
-    </row>
-    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA258" s="3"/>
+      <c r="AB258" s="3"/>
+      <c r="AC258" s="3"/>
+      <c r="AD258" s="3"/>
+      <c r="AE258" s="3"/>
+      <c r="AF258" s="3"/>
+    </row>
+    <row r="259" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -10076,12 +11443,6 @@
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
-      <c r="H259" s="3"/>
-      <c r="I259" s="3"/>
-      <c r="J259" s="3"/>
-      <c r="K259" s="3"/>
-      <c r="L259" s="3"/>
-      <c r="M259" s="3"/>
       <c r="N259" s="3"/>
       <c r="O259" s="3"/>
       <c r="P259" s="3"/>
@@ -10095,8 +11456,14 @@
       <c r="X259" s="3"/>
       <c r="Y259" s="3"/>
       <c r="Z259" s="3"/>
-    </row>
-    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA259" s="3"/>
+      <c r="AB259" s="3"/>
+      <c r="AC259" s="3"/>
+      <c r="AD259" s="3"/>
+      <c r="AE259" s="3"/>
+      <c r="AF259" s="3"/>
+    </row>
+    <row r="260" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -10104,12 +11471,6 @@
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
-      <c r="H260" s="3"/>
-      <c r="I260" s="3"/>
-      <c r="J260" s="3"/>
-      <c r="K260" s="3"/>
-      <c r="L260" s="3"/>
-      <c r="M260" s="3"/>
       <c r="N260" s="3"/>
       <c r="O260" s="3"/>
       <c r="P260" s="3"/>
@@ -10123,8 +11484,14 @@
       <c r="X260" s="3"/>
       <c r="Y260" s="3"/>
       <c r="Z260" s="3"/>
-    </row>
-    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA260" s="3"/>
+      <c r="AB260" s="3"/>
+      <c r="AC260" s="3"/>
+      <c r="AD260" s="3"/>
+      <c r="AE260" s="3"/>
+      <c r="AF260" s="3"/>
+    </row>
+    <row r="261" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -10132,12 +11499,6 @@
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
-      <c r="H261" s="3"/>
-      <c r="I261" s="3"/>
-      <c r="J261" s="3"/>
-      <c r="K261" s="3"/>
-      <c r="L261" s="3"/>
-      <c r="M261" s="3"/>
       <c r="N261" s="3"/>
       <c r="O261" s="3"/>
       <c r="P261" s="3"/>
@@ -10151,8 +11512,14 @@
       <c r="X261" s="3"/>
       <c r="Y261" s="3"/>
       <c r="Z261" s="3"/>
-    </row>
-    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA261" s="3"/>
+      <c r="AB261" s="3"/>
+      <c r="AC261" s="3"/>
+      <c r="AD261" s="3"/>
+      <c r="AE261" s="3"/>
+      <c r="AF261" s="3"/>
+    </row>
+    <row r="262" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -10160,12 +11527,6 @@
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
-      <c r="H262" s="3"/>
-      <c r="I262" s="3"/>
-      <c r="J262" s="3"/>
-      <c r="K262" s="3"/>
-      <c r="L262" s="3"/>
-      <c r="M262" s="3"/>
       <c r="N262" s="3"/>
       <c r="O262" s="3"/>
       <c r="P262" s="3"/>
@@ -10179,8 +11540,14 @@
       <c r="X262" s="3"/>
       <c r="Y262" s="3"/>
       <c r="Z262" s="3"/>
-    </row>
-    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA262" s="3"/>
+      <c r="AB262" s="3"/>
+      <c r="AC262" s="3"/>
+      <c r="AD262" s="3"/>
+      <c r="AE262" s="3"/>
+      <c r="AF262" s="3"/>
+    </row>
+    <row r="263" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -10188,12 +11555,6 @@
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
-      <c r="H263" s="3"/>
-      <c r="I263" s="3"/>
-      <c r="J263" s="3"/>
-      <c r="K263" s="3"/>
-      <c r="L263" s="3"/>
-      <c r="M263" s="3"/>
       <c r="N263" s="3"/>
       <c r="O263" s="3"/>
       <c r="P263" s="3"/>
@@ -10207,8 +11568,14 @@
       <c r="X263" s="3"/>
       <c r="Y263" s="3"/>
       <c r="Z263" s="3"/>
-    </row>
-    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA263" s="3"/>
+      <c r="AB263" s="3"/>
+      <c r="AC263" s="3"/>
+      <c r="AD263" s="3"/>
+      <c r="AE263" s="3"/>
+      <c r="AF263" s="3"/>
+    </row>
+    <row r="264" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -10216,12 +11583,6 @@
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
-      <c r="H264" s="3"/>
-      <c r="I264" s="3"/>
-      <c r="J264" s="3"/>
-      <c r="K264" s="3"/>
-      <c r="L264" s="3"/>
-      <c r="M264" s="3"/>
       <c r="N264" s="3"/>
       <c r="O264" s="3"/>
       <c r="P264" s="3"/>
@@ -10235,8 +11596,14 @@
       <c r="X264" s="3"/>
       <c r="Y264" s="3"/>
       <c r="Z264" s="3"/>
-    </row>
-    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA264" s="3"/>
+      <c r="AB264" s="3"/>
+      <c r="AC264" s="3"/>
+      <c r="AD264" s="3"/>
+      <c r="AE264" s="3"/>
+      <c r="AF264" s="3"/>
+    </row>
+    <row r="265" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -10244,12 +11611,6 @@
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
-      <c r="H265" s="3"/>
-      <c r="I265" s="3"/>
-      <c r="J265" s="3"/>
-      <c r="K265" s="3"/>
-      <c r="L265" s="3"/>
-      <c r="M265" s="3"/>
       <c r="N265" s="3"/>
       <c r="O265" s="3"/>
       <c r="P265" s="3"/>
@@ -10263,8 +11624,14 @@
       <c r="X265" s="3"/>
       <c r="Y265" s="3"/>
       <c r="Z265" s="3"/>
-    </row>
-    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA265" s="3"/>
+      <c r="AB265" s="3"/>
+      <c r="AC265" s="3"/>
+      <c r="AD265" s="3"/>
+      <c r="AE265" s="3"/>
+      <c r="AF265" s="3"/>
+    </row>
+    <row r="266" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -10272,12 +11639,6 @@
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
-      <c r="H266" s="3"/>
-      <c r="I266" s="3"/>
-      <c r="J266" s="3"/>
-      <c r="K266" s="3"/>
-      <c r="L266" s="3"/>
-      <c r="M266" s="3"/>
       <c r="N266" s="3"/>
       <c r="O266" s="3"/>
       <c r="P266" s="3"/>
@@ -10291,8 +11652,14 @@
       <c r="X266" s="3"/>
       <c r="Y266" s="3"/>
       <c r="Z266" s="3"/>
-    </row>
-    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA266" s="3"/>
+      <c r="AB266" s="3"/>
+      <c r="AC266" s="3"/>
+      <c r="AD266" s="3"/>
+      <c r="AE266" s="3"/>
+      <c r="AF266" s="3"/>
+    </row>
+    <row r="267" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -10300,12 +11667,6 @@
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
-      <c r="H267" s="3"/>
-      <c r="I267" s="3"/>
-      <c r="J267" s="3"/>
-      <c r="K267" s="3"/>
-      <c r="L267" s="3"/>
-      <c r="M267" s="3"/>
       <c r="N267" s="3"/>
       <c r="O267" s="3"/>
       <c r="P267" s="3"/>
@@ -10319,8 +11680,14 @@
       <c r="X267" s="3"/>
       <c r="Y267" s="3"/>
       <c r="Z267" s="3"/>
-    </row>
-    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA267" s="3"/>
+      <c r="AB267" s="3"/>
+      <c r="AC267" s="3"/>
+      <c r="AD267" s="3"/>
+      <c r="AE267" s="3"/>
+      <c r="AF267" s="3"/>
+    </row>
+    <row r="268" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -10328,12 +11695,6 @@
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
-      <c r="H268" s="3"/>
-      <c r="I268" s="3"/>
-      <c r="J268" s="3"/>
-      <c r="K268" s="3"/>
-      <c r="L268" s="3"/>
-      <c r="M268" s="3"/>
       <c r="N268" s="3"/>
       <c r="O268" s="3"/>
       <c r="P268" s="3"/>
@@ -10347,8 +11708,14 @@
       <c r="X268" s="3"/>
       <c r="Y268" s="3"/>
       <c r="Z268" s="3"/>
-    </row>
-    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA268" s="3"/>
+      <c r="AB268" s="3"/>
+      <c r="AC268" s="3"/>
+      <c r="AD268" s="3"/>
+      <c r="AE268" s="3"/>
+      <c r="AF268" s="3"/>
+    </row>
+    <row r="269" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -10356,12 +11723,6 @@
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
-      <c r="H269" s="3"/>
-      <c r="I269" s="3"/>
-      <c r="J269" s="3"/>
-      <c r="K269" s="3"/>
-      <c r="L269" s="3"/>
-      <c r="M269" s="3"/>
       <c r="N269" s="3"/>
       <c r="O269" s="3"/>
       <c r="P269" s="3"/>
@@ -10375,8 +11736,14 @@
       <c r="X269" s="3"/>
       <c r="Y269" s="3"/>
       <c r="Z269" s="3"/>
-    </row>
-    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA269" s="3"/>
+      <c r="AB269" s="3"/>
+      <c r="AC269" s="3"/>
+      <c r="AD269" s="3"/>
+      <c r="AE269" s="3"/>
+      <c r="AF269" s="3"/>
+    </row>
+    <row r="270" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -10384,12 +11751,6 @@
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
-      <c r="H270" s="3"/>
-      <c r="I270" s="3"/>
-      <c r="J270" s="3"/>
-      <c r="K270" s="3"/>
-      <c r="L270" s="3"/>
-      <c r="M270" s="3"/>
       <c r="N270" s="3"/>
       <c r="O270" s="3"/>
       <c r="P270" s="3"/>
@@ -10403,8 +11764,14 @@
       <c r="X270" s="3"/>
       <c r="Y270" s="3"/>
       <c r="Z270" s="3"/>
-    </row>
-    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA270" s="3"/>
+      <c r="AB270" s="3"/>
+      <c r="AC270" s="3"/>
+      <c r="AD270" s="3"/>
+      <c r="AE270" s="3"/>
+      <c r="AF270" s="3"/>
+    </row>
+    <row r="271" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -10412,12 +11779,6 @@
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
-      <c r="H271" s="3"/>
-      <c r="I271" s="3"/>
-      <c r="J271" s="3"/>
-      <c r="K271" s="3"/>
-      <c r="L271" s="3"/>
-      <c r="M271" s="3"/>
       <c r="N271" s="3"/>
       <c r="O271" s="3"/>
       <c r="P271" s="3"/>
@@ -10431,8 +11792,14 @@
       <c r="X271" s="3"/>
       <c r="Y271" s="3"/>
       <c r="Z271" s="3"/>
-    </row>
-    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA271" s="3"/>
+      <c r="AB271" s="3"/>
+      <c r="AC271" s="3"/>
+      <c r="AD271" s="3"/>
+      <c r="AE271" s="3"/>
+      <c r="AF271" s="3"/>
+    </row>
+    <row r="272" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -10440,12 +11807,6 @@
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
-      <c r="H272" s="3"/>
-      <c r="I272" s="3"/>
-      <c r="J272" s="3"/>
-      <c r="K272" s="3"/>
-      <c r="L272" s="3"/>
-      <c r="M272" s="3"/>
       <c r="N272" s="3"/>
       <c r="O272" s="3"/>
       <c r="P272" s="3"/>
@@ -10459,8 +11820,14 @@
       <c r="X272" s="3"/>
       <c r="Y272" s="3"/>
       <c r="Z272" s="3"/>
-    </row>
-    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA272" s="3"/>
+      <c r="AB272" s="3"/>
+      <c r="AC272" s="3"/>
+      <c r="AD272" s="3"/>
+      <c r="AE272" s="3"/>
+      <c r="AF272" s="3"/>
+    </row>
+    <row r="273" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -10468,12 +11835,6 @@
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
-      <c r="H273" s="3"/>
-      <c r="I273" s="3"/>
-      <c r="J273" s="3"/>
-      <c r="K273" s="3"/>
-      <c r="L273" s="3"/>
-      <c r="M273" s="3"/>
       <c r="N273" s="3"/>
       <c r="O273" s="3"/>
       <c r="P273" s="3"/>
@@ -10487,8 +11848,14 @@
       <c r="X273" s="3"/>
       <c r="Y273" s="3"/>
       <c r="Z273" s="3"/>
-    </row>
-    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA273" s="3"/>
+      <c r="AB273" s="3"/>
+      <c r="AC273" s="3"/>
+      <c r="AD273" s="3"/>
+      <c r="AE273" s="3"/>
+      <c r="AF273" s="3"/>
+    </row>
+    <row r="274" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -10496,12 +11863,6 @@
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
-      <c r="H274" s="3"/>
-      <c r="I274" s="3"/>
-      <c r="J274" s="3"/>
-      <c r="K274" s="3"/>
-      <c r="L274" s="3"/>
-      <c r="M274" s="3"/>
       <c r="N274" s="3"/>
       <c r="O274" s="3"/>
       <c r="P274" s="3"/>
@@ -10515,21 +11876,27 @@
       <c r="X274" s="3"/>
       <c r="Y274" s="3"/>
       <c r="Z274" s="3"/>
-    </row>
-    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="AA274" s="3"/>
+      <c r="AB274" s="3"/>
+      <c r="AC274" s="3"/>
+      <c r="AD274" s="3"/>
+      <c r="AE274" s="3"/>
+      <c r="AF274" s="3"/>
+    </row>
+    <row r="275" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18146,8 +19513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93A5EC3-FBB2-45C8-970D-BAFCCCAE5624}">
   <dimension ref="A1:E409"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
